--- a/trades_report.xlsx
+++ b/trades_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="10">
   <si>
     <t>Order Type</t>
   </si>
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G213"/>
+  <dimension ref="A1:G151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -439,19 +439,19 @@
         <v>7</v>
       </c>
       <c r="B2" s="2">
-        <v>44634.00347222222</v>
+        <v>44586.00347222222</v>
       </c>
       <c r="C2">
-        <v>38697.66765778858</v>
+        <v>22.27</v>
       </c>
       <c r="D2">
-        <v>0.002584135066855205</v>
+        <v>8.980691513246521</v>
       </c>
       <c r="E2">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F2">
-        <v>0.002584135066855205</v>
+        <v>8.980691513246521</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -462,19 +462,19 @@
         <v>8</v>
       </c>
       <c r="B3" s="2">
-        <v>44635.00347222222</v>
+        <v>44587.00347222222</v>
       </c>
       <c r="C3">
-        <v>39563.49808999748</v>
+        <v>22.73</v>
       </c>
       <c r="D3">
-        <v>0.002527582363230975</v>
+        <v>8.798944126704795</v>
       </c>
       <c r="E3">
         <v>1000</v>
       </c>
       <c r="F3">
-        <v>5.655270362423014E-05</v>
+        <v>0.1817473865417263</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
@@ -485,16 +485,16 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>44636.00347222222</v>
+        <v>44588.00347222222</v>
       </c>
       <c r="C4">
-        <v>41038.96533714772</v>
+        <v>21.89</v>
       </c>
       <c r="D4">
-        <v>5.655270362423014E-05</v>
+        <v>0.1817473865417263</v>
       </c>
       <c r="E4">
-        <v>1002.320864443757</v>
+        <v>1003.978450291398</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -508,19 +508,19 @@
         <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>44637.00347222222</v>
+        <v>44595.00347222222</v>
       </c>
       <c r="C5">
-        <v>40912.61234575688</v>
+        <v>23.9</v>
       </c>
       <c r="D5">
-        <v>0.00244423404584604</v>
+        <v>8.368200836820083</v>
       </c>
       <c r="E5">
-        <v>902.3208644437568</v>
+        <v>803.9784502913984</v>
       </c>
       <c r="F5">
-        <v>0.00244423404584604</v>
+        <v>8.368200836820083</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -531,19 +531,19 @@
         <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>44638.00347222222</v>
+        <v>44596.00347222222</v>
       </c>
       <c r="C6">
-        <v>41802.00795897266</v>
+        <v>24.27</v>
       </c>
       <c r="D6">
-        <v>0.002392229581367164</v>
+        <v>8.240626287597857</v>
       </c>
       <c r="E6">
-        <v>1002.320864443757</v>
+        <v>1003.978450291398</v>
       </c>
       <c r="F6">
-        <v>5.200446447887683E-05</v>
+        <v>0.127574549222226</v>
       </c>
       <c r="G6" t="s">
         <v>9</v>
@@ -554,16 +554,16 @@
         <v>8</v>
       </c>
       <c r="B7" s="2">
-        <v>44639.00347222222</v>
+        <v>44599.00347222222</v>
       </c>
       <c r="C7">
-        <v>42149.04666555338</v>
+        <v>24.69</v>
       </c>
       <c r="D7">
-        <v>5.200446447887683E-05</v>
+        <v>0.127574549222226</v>
       </c>
       <c r="E7">
-        <v>1004.512803043894</v>
+        <v>1007.128265911695</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -577,19 +577,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>44640.00347222222</v>
+        <v>44603.00347222222</v>
       </c>
       <c r="C8">
-        <v>41305.16504682148</v>
+        <v>23.91</v>
       </c>
       <c r="D8">
-        <v>0.002421004731167276</v>
+        <v>8.36470096194061</v>
       </c>
       <c r="E8">
-        <v>904.5128030438941</v>
+        <v>807.1282659116952</v>
       </c>
       <c r="F8">
-        <v>0.002421004731167276</v>
+        <v>8.36470096194061</v>
       </c>
       <c r="G8" t="s">
         <v>9</v>
@@ -597,22 +597,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>44641.00347222222</v>
+        <v>44606.00347222222</v>
       </c>
       <c r="C9">
-        <v>41249.55474614569</v>
+        <v>24.21</v>
       </c>
       <c r="D9">
-        <v>0.002424268591877198</v>
+        <v>8.261049153242462</v>
       </c>
       <c r="E9">
-        <v>804.5128030438941</v>
+        <v>1007.128265911695</v>
       </c>
       <c r="F9">
-        <v>0.004845273323044474</v>
+        <v>0.1036518086981477</v>
       </c>
       <c r="G9" t="s">
         <v>9</v>
@@ -623,19 +623,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>44642.00347222222</v>
+        <v>44607.00347222222</v>
       </c>
       <c r="C10">
-        <v>42782.43318311508</v>
+        <v>26.45</v>
       </c>
       <c r="D10">
-        <v>0.002337407963029717</v>
+        <v>0.1036518086981477</v>
       </c>
       <c r="E10">
-        <v>904.5128030438941</v>
+        <v>1009.869856251761</v>
       </c>
       <c r="F10">
-        <v>0.002507865360014757</v>
+        <v>0</v>
       </c>
       <c r="G10" t="s">
         <v>9</v>
@@ -646,19 +646,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="2">
-        <v>44643.00347222222</v>
+        <v>44609.00347222222</v>
       </c>
       <c r="C11">
-        <v>42329.94691294576</v>
+        <v>24.47</v>
       </c>
       <c r="D11">
-        <v>0.002362393702162122</v>
+        <v>8.173273395995096</v>
       </c>
       <c r="E11">
-        <v>804.5128030438941</v>
+        <v>809.8698562517611</v>
       </c>
       <c r="F11">
-        <v>0.004870259062176878</v>
+        <v>8.173273395995096</v>
       </c>
       <c r="G11" t="s">
         <v>9</v>
@@ -669,19 +669,19 @@
         <v>8</v>
       </c>
       <c r="B12" s="2">
-        <v>44644.00347222222</v>
+        <v>44610.00347222222</v>
       </c>
       <c r="C12">
-        <v>44038.86151566021</v>
+        <v>23.58</v>
       </c>
       <c r="D12">
-        <v>0.002270721734358188</v>
+        <v>8.173273395995096</v>
       </c>
       <c r="E12">
-        <v>904.5128030438941</v>
+        <v>1002.595642929325</v>
       </c>
       <c r="F12">
-        <v>0.00259953732781869</v>
+        <v>0</v>
       </c>
       <c r="G12" t="s">
         <v>9</v>
@@ -689,22 +689,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="2">
-        <v>44645.00347222222</v>
+        <v>44627.00347222222</v>
       </c>
       <c r="C13">
-        <v>44484.99401206981</v>
+        <v>21.3</v>
       </c>
       <c r="D13">
-        <v>0.002247949049355108</v>
+        <v>9.389671361502348</v>
       </c>
       <c r="E13">
-        <v>1004.512803043894</v>
+        <v>802.5956429293254</v>
       </c>
       <c r="F13">
-        <v>0.0003515882784635824</v>
+        <v>9.389671361502348</v>
       </c>
       <c r="G13" t="s">
         <v>9</v>
@@ -712,22 +712,22 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B14" s="2">
-        <v>44646.00347222222</v>
+        <v>44628.00347222222</v>
       </c>
       <c r="C14">
-        <v>44404.6154558658</v>
+        <v>21.39</v>
       </c>
       <c r="D14">
-        <v>0.002252018151117444</v>
+        <v>9.350163627863488</v>
       </c>
       <c r="E14">
-        <v>904.5128030438941</v>
+        <v>1002.595642929325</v>
       </c>
       <c r="F14">
-        <v>0.002603606429581027</v>
+        <v>0.03950773363886029</v>
       </c>
       <c r="G14" t="s">
         <v>9</v>
@@ -738,19 +738,19 @@
         <v>8</v>
       </c>
       <c r="B15" s="2">
-        <v>44647.00347222222</v>
+        <v>44629.00347222222</v>
       </c>
       <c r="C15">
-        <v>46037.87886453782</v>
+        <v>22.97</v>
       </c>
       <c r="D15">
-        <v>0.002172124399871695</v>
+        <v>0.03950773363886029</v>
       </c>
       <c r="E15">
-        <v>1004.512803043894</v>
+        <v>1003.50313557101</v>
       </c>
       <c r="F15">
-        <v>0.0004314820297093313</v>
+        <v>0</v>
       </c>
       <c r="G15" t="s">
         <v>9</v>
@@ -758,22 +758,22 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="2">
-        <v>44648.00347222222</v>
+        <v>44657.00347222222</v>
       </c>
       <c r="C16">
-        <v>47947.13638207356</v>
+        <v>24.35</v>
       </c>
       <c r="D16">
-        <v>0.0004314820297093313</v>
+        <v>8.213552361396303</v>
       </c>
       <c r="E16">
-        <v>1025.201130768781</v>
+        <v>803.50313557101</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>8.213552361396303</v>
       </c>
       <c r="G16" t="s">
         <v>9</v>
@@ -781,22 +781,22 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" s="2">
-        <v>44649.00347222222</v>
+        <v>44658.00347222222</v>
       </c>
       <c r="C17">
-        <v>47513.96188365307</v>
+        <v>24.16</v>
       </c>
       <c r="D17">
-        <v>0.002104644530482828</v>
+        <v>8.213552361396303</v>
       </c>
       <c r="E17">
-        <v>925.2011307687812</v>
+        <v>1001.942560622345</v>
       </c>
       <c r="F17">
-        <v>0.002104644530482828</v>
+        <v>0</v>
       </c>
       <c r="G17" t="s">
         <v>9</v>
@@ -807,19 +807,19 @@
         <v>7</v>
       </c>
       <c r="B18" s="2">
-        <v>44650.00347222222</v>
+        <v>44662.00347222222</v>
       </c>
       <c r="C18">
-        <v>47207.21196268856</v>
+        <v>21.87</v>
       </c>
       <c r="D18">
-        <v>0.002118320397295175</v>
+        <v>9.144947416552354</v>
       </c>
       <c r="E18">
-        <v>825.2011307687812</v>
+        <v>801.9425606223447</v>
       </c>
       <c r="F18">
-        <v>0.004222964927778003</v>
+        <v>9.144947416552354</v>
       </c>
       <c r="G18" t="s">
         <v>9</v>
@@ -827,22 +827,22 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B19" s="2">
-        <v>44651.00347222222</v>
+        <v>44663.00347222222</v>
       </c>
       <c r="C19">
-        <v>45730.07134906578</v>
+        <v>21.46</v>
       </c>
       <c r="D19">
-        <v>0.002186744893457134</v>
+        <v>9.144947416552354</v>
       </c>
       <c r="E19">
-        <v>725.2011307687812</v>
+        <v>998.1931321815582</v>
       </c>
       <c r="F19">
-        <v>0.006409709821235137</v>
+        <v>0</v>
       </c>
       <c r="G19" t="s">
         <v>9</v>
@@ -850,22 +850,22 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" s="2">
-        <v>44652.00347222222</v>
+        <v>44665.00347222222</v>
       </c>
       <c r="C20">
-        <v>46181.97666964021</v>
+        <v>21.21</v>
       </c>
       <c r="D20">
-        <v>0.002165346899621546</v>
+        <v>9.429514380009429</v>
       </c>
       <c r="E20">
-        <v>825.2011307687812</v>
+        <v>798.1931321815582</v>
       </c>
       <c r="F20">
-        <v>0.004244362921613591</v>
+        <v>9.429514380009429</v>
       </c>
       <c r="G20" t="s">
         <v>9</v>
@@ -876,19 +876,19 @@
         <v>8</v>
       </c>
       <c r="B21" s="2">
-        <v>44653.00347222222</v>
+        <v>44669.00347222222</v>
       </c>
       <c r="C21">
-        <v>46116.13894362123</v>
+        <v>21.74</v>
       </c>
       <c r="D21">
-        <v>0.002168438258073901</v>
+        <v>9.199632014719413</v>
       </c>
       <c r="E21">
-        <v>925.2011307687812</v>
+        <v>998.1931321815582</v>
       </c>
       <c r="F21">
-        <v>0.00207592466353969</v>
+        <v>0.2298823652900168</v>
       </c>
       <c r="G21" t="s">
         <v>9</v>
@@ -899,16 +899,16 @@
         <v>8</v>
       </c>
       <c r="B22" s="2">
-        <v>44654.00347222222</v>
+        <v>44670.00347222222</v>
       </c>
       <c r="C22">
-        <v>46337.56148594117</v>
+        <v>22.15</v>
       </c>
       <c r="D22">
-        <v>0.00207592466353969</v>
+        <v>0.2298823652900168</v>
       </c>
       <c r="E22">
-        <v>1021.394417505733</v>
+        <v>1003.285026572732</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -922,19 +922,19 @@
         <v>7</v>
       </c>
       <c r="B23" s="2">
-        <v>44655.00347222222</v>
+        <v>44672.00347222222</v>
       </c>
       <c r="C23">
-        <v>46372.69648950684</v>
+        <v>20.12</v>
       </c>
       <c r="D23">
-        <v>0.00215644134523486</v>
+        <v>9.940357852882704</v>
       </c>
       <c r="E23">
-        <v>921.3944175057334</v>
+        <v>803.2850265727321</v>
       </c>
       <c r="F23">
-        <v>0.00215644134523486</v>
+        <v>9.940357852882704</v>
       </c>
       <c r="G23" t="s">
         <v>9</v>
@@ -945,19 +945,19 @@
         <v>7</v>
       </c>
       <c r="B24" s="2">
-        <v>44656.00347222222</v>
+        <v>44673.00347222222</v>
       </c>
       <c r="C24">
-        <v>45891.38183435095</v>
+        <v>19.47</v>
       </c>
       <c r="D24">
-        <v>0.002179058376602364</v>
+        <v>10.27221366204417</v>
       </c>
       <c r="E24">
-        <v>821.3944175057334</v>
+        <v>603.2850265727321</v>
       </c>
       <c r="F24">
-        <v>0.004335499721837223</v>
+        <v>20.21257151492687</v>
       </c>
       <c r="G24" t="s">
         <v>9</v>
@@ -965,22 +965,22 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B25" s="2">
-        <v>44657.00347222222</v>
+        <v>44676.00347222222</v>
       </c>
       <c r="C25">
-        <v>43824.52873931639</v>
+        <v>19.87</v>
       </c>
       <c r="D25">
-        <v>0.002281827161105027</v>
+        <v>10.06542526421741</v>
       </c>
       <c r="E25">
-        <v>721.3944175057334</v>
+        <v>803.2850265727321</v>
       </c>
       <c r="F25">
-        <v>0.00661732688294225</v>
+        <v>10.14714625070946</v>
       </c>
       <c r="G25" t="s">
         <v>9</v>
@@ -991,19 +991,19 @@
         <v>7</v>
       </c>
       <c r="B26" s="2">
-        <v>44658.00347222222</v>
+        <v>44677.00347222222</v>
       </c>
       <c r="C26">
-        <v>43485.36641214001</v>
+        <v>18.75</v>
       </c>
       <c r="D26">
-        <v>0.0022996241782174</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="E26">
-        <v>621.3944175057334</v>
+        <v>603.2850265727321</v>
       </c>
       <c r="F26">
-        <v>0.00891695106115965</v>
+        <v>20.81381291737613</v>
       </c>
       <c r="G26" t="s">
         <v>9</v>
@@ -1011,22 +1011,22 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B27" s="2">
-        <v>44659.00347222222</v>
+        <v>44678.00347222222</v>
       </c>
       <c r="C27">
-        <v>42821.74584204306</v>
+        <v>18.36</v>
       </c>
       <c r="D27">
-        <v>0.002335262097180037</v>
+        <v>10.89324618736383</v>
       </c>
       <c r="E27">
-        <v>521.3944175057334</v>
+        <v>803.2850265727321</v>
       </c>
       <c r="F27">
-        <v>0.01125221315833969</v>
+        <v>9.920566730012295</v>
       </c>
       <c r="G27" t="s">
         <v>9</v>
@@ -1034,22 +1034,22 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B28" s="2">
-        <v>44660.00347222222</v>
+        <v>44679.00347222222</v>
       </c>
       <c r="C28">
-        <v>42403.89546898336</v>
+        <v>19.74</v>
       </c>
       <c r="D28">
-        <v>0.002358273901348185</v>
+        <v>9.920566730012295</v>
       </c>
       <c r="E28">
-        <v>421.3944175057334</v>
+        <v>999.1170138231748</v>
       </c>
       <c r="F28">
-        <v>0.01361048705968787</v>
+        <v>0</v>
       </c>
       <c r="G28" t="s">
         <v>9</v>
@@ -1057,22 +1057,22 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" s="2">
-        <v>44661.00347222222</v>
+        <v>44680.00347222222</v>
       </c>
       <c r="C29">
-        <v>43109.97918479573</v>
+        <v>18.51</v>
       </c>
       <c r="D29">
-        <v>0.002319648533610718</v>
+        <v>10.80497028633171</v>
       </c>
       <c r="E29">
-        <v>521.3944175057334</v>
+        <v>799.1170138231748</v>
       </c>
       <c r="F29">
-        <v>0.01129083852607715</v>
+        <v>10.80497028633171</v>
       </c>
       <c r="G29" t="s">
         <v>9</v>
@@ -1080,22 +1080,22 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B30" s="2">
-        <v>44662.00347222222</v>
+        <v>44683.00347222222</v>
       </c>
       <c r="C30">
-        <v>39821.93726824571</v>
+        <v>19.49</v>
       </c>
       <c r="D30">
-        <v>0.002511178683407266</v>
+        <v>10.26167265264238</v>
       </c>
       <c r="E30">
-        <v>421.3944175057334</v>
+        <v>999.1170138231748</v>
       </c>
       <c r="F30">
-        <v>0.01380201720948442</v>
+        <v>0.5432976336893294</v>
       </c>
       <c r="G30" t="s">
         <v>9</v>
@@ -1103,22 +1103,22 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B31" s="2">
-        <v>44663.00347222222</v>
+        <v>44684.00347222222</v>
       </c>
       <c r="C31">
-        <v>39557.89955814841</v>
+        <v>19.57</v>
       </c>
       <c r="D31">
-        <v>0.002527940085721799</v>
+        <v>0.5432976336893294</v>
       </c>
       <c r="E31">
-        <v>321.3944175057334</v>
+        <v>1009.749348514475</v>
       </c>
       <c r="F31">
-        <v>0.01632995729520622</v>
+        <v>0</v>
       </c>
       <c r="G31" t="s">
         <v>9</v>
@@ -1126,22 +1126,22 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" s="2">
-        <v>44664.00347222222</v>
+        <v>44686.00347222222</v>
       </c>
       <c r="C32">
-        <v>41235.09826697041</v>
+        <v>18.82</v>
       </c>
       <c r="D32">
-        <v>0.002425118508329121</v>
+        <v>10.62699256110521</v>
       </c>
       <c r="E32">
-        <v>421.3944175057334</v>
+        <v>809.7493485144751</v>
       </c>
       <c r="F32">
-        <v>0.0139048387868771</v>
+        <v>10.62699256110521</v>
       </c>
       <c r="G32" t="s">
         <v>9</v>
@@ -1149,22 +1149,22 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B33" s="2">
-        <v>44665.00347222222</v>
+        <v>44687.00347222222</v>
       </c>
       <c r="C33">
-        <v>39856.88752231332</v>
+        <v>18.64</v>
       </c>
       <c r="D33">
-        <v>0.002508976646608855</v>
+        <v>10.62699256110521</v>
       </c>
       <c r="E33">
-        <v>321.3944175057334</v>
+        <v>1007.836489853476</v>
       </c>
       <c r="F33">
-        <v>0.01641381543348595</v>
+        <v>0</v>
       </c>
       <c r="G33" t="s">
         <v>9</v>
@@ -1172,22 +1172,22 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B34" s="2">
-        <v>44666.00347222222</v>
+        <v>44690.00347222222</v>
       </c>
       <c r="C34">
-        <v>40393.97462353533</v>
+        <v>16.91</v>
       </c>
       <c r="D34">
-        <v>0.002475616745615707</v>
+        <v>11.82732111176818</v>
       </c>
       <c r="E34">
-        <v>421.3944175057334</v>
+        <v>807.8364898534761</v>
       </c>
       <c r="F34">
-        <v>0.01393819868787025</v>
+        <v>11.82732111176818</v>
       </c>
       <c r="G34" t="s">
         <v>9</v>
@@ -1195,22 +1195,22 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B35" s="2">
-        <v>44667.00347222222</v>
+        <v>44691.00347222222</v>
       </c>
       <c r="C35">
-        <v>40212.45197477715</v>
+        <v>17.53</v>
       </c>
       <c r="D35">
-        <v>0.002486791903729819</v>
+        <v>11.40901312036509</v>
       </c>
       <c r="E35">
-        <v>321.3944175057334</v>
+        <v>1007.836489853476</v>
       </c>
       <c r="F35">
-        <v>0.01642499059160006</v>
+        <v>0.4183079914030952</v>
       </c>
       <c r="G35" t="s">
         <v>9</v>
@@ -1221,19 +1221,19 @@
         <v>7</v>
       </c>
       <c r="B36" s="2">
-        <v>44668.00347222222</v>
+        <v>44692.00347222222</v>
       </c>
       <c r="C36">
-        <v>40269.08095158827</v>
+        <v>16.57</v>
       </c>
       <c r="D36">
-        <v>0.002483294816691262</v>
+        <v>12.07000603500302</v>
       </c>
       <c r="E36">
-        <v>221.3944175057334</v>
+        <v>807.8364898534761</v>
       </c>
       <c r="F36">
-        <v>0.01890828540829133</v>
+        <v>12.48831402640611</v>
       </c>
       <c r="G36" t="s">
         <v>9</v>
@@ -1241,22 +1241,22 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37" s="2">
-        <v>44669.00347222222</v>
+        <v>44693.00347222222</v>
       </c>
       <c r="C37">
-        <v>40648.24433604415</v>
+        <v>16.13</v>
       </c>
       <c r="D37">
-        <v>0.002460130852719921</v>
+        <v>12.39925604463732</v>
       </c>
       <c r="E37">
-        <v>321.3944175057334</v>
+        <v>607.8364898534761</v>
       </c>
       <c r="F37">
-        <v>0.01644815455557141</v>
+        <v>24.88757007104343</v>
       </c>
       <c r="G37" t="s">
         <v>9</v>
@@ -1267,19 +1267,19 @@
         <v>8</v>
       </c>
       <c r="B38" s="2">
-        <v>44670.00347222222</v>
+        <v>44694.00347222222</v>
       </c>
       <c r="C38">
-        <v>41195.41593355276</v>
+        <v>17.61</v>
       </c>
       <c r="D38">
-        <v>0.00242745455371291</v>
+        <v>11.35718341851221</v>
       </c>
       <c r="E38">
-        <v>421.3944175057334</v>
+        <v>807.8364898534761</v>
       </c>
       <c r="F38">
-        <v>0.0140207000018585</v>
+        <v>13.53038665253123</v>
       </c>
       <c r="G38" t="s">
         <v>9</v>
@@ -1287,22 +1287,22 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B39" s="2">
-        <v>44671.00347222222</v>
+        <v>44697.00347222222</v>
       </c>
       <c r="C39">
-        <v>41336.17619233271</v>
+        <v>17.15</v>
       </c>
       <c r="D39">
-        <v>0.002419188449718012</v>
+        <v>11.66180758017493</v>
       </c>
       <c r="E39">
-        <v>521.3944175057334</v>
+        <v>607.8364898534761</v>
       </c>
       <c r="F39">
-        <v>0.01160151155214049</v>
+        <v>25.19219423270615</v>
       </c>
       <c r="G39" t="s">
         <v>9</v>
@@ -1310,22 +1310,22 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B40" s="2">
-        <v>44672.00347222222</v>
+        <v>44698.00347222222</v>
       </c>
       <c r="C40">
-        <v>40493.11151930467</v>
+        <v>18.11</v>
       </c>
       <c r="D40">
-        <v>0.002469555839203071</v>
+        <v>11.04362230811706</v>
       </c>
       <c r="E40">
-        <v>421.3944175057334</v>
+        <v>807.8364898534761</v>
       </c>
       <c r="F40">
-        <v>0.01407106739134356</v>
+        <v>14.14857192458909</v>
       </c>
       <c r="G40" t="s">
         <v>9</v>
@@ -1336,19 +1336,19 @@
         <v>7</v>
       </c>
       <c r="B41" s="2">
-        <v>44673.00347222222</v>
+        <v>44699.00347222222</v>
       </c>
       <c r="C41">
-        <v>39612.41326681447</v>
+        <v>16.89</v>
       </c>
       <c r="D41">
-        <v>0.002524461191658211</v>
+        <v>11.8413262285376</v>
       </c>
       <c r="E41">
-        <v>321.3944175057334</v>
+        <v>607.8364898534761</v>
       </c>
       <c r="F41">
-        <v>0.01659552858300177</v>
+        <v>25.98989815312669</v>
       </c>
       <c r="G41" t="s">
         <v>9</v>
@@ -1359,19 +1359,19 @@
         <v>8</v>
       </c>
       <c r="B42" s="2">
-        <v>44674.00347222222</v>
+        <v>44700.00347222222</v>
       </c>
       <c r="C42">
-        <v>39760.87101814224</v>
+        <v>17.04</v>
       </c>
       <c r="D42">
-        <v>0.002515035446642294</v>
+        <v>11.73708920187793</v>
       </c>
       <c r="E42">
-        <v>421.3944175057334</v>
+        <v>807.8364898534761</v>
       </c>
       <c r="F42">
-        <v>0.01408049313635948</v>
+        <v>14.25280895124875</v>
       </c>
       <c r="G42" t="s">
         <v>9</v>
@@ -1382,19 +1382,19 @@
         <v>7</v>
       </c>
       <c r="B43" s="2">
-        <v>44675.00347222222</v>
+        <v>44701.00347222222</v>
       </c>
       <c r="C43">
-        <v>39485.43613535177</v>
+        <v>16.64</v>
       </c>
       <c r="D43">
-        <v>0.002532579345387269</v>
+        <v>12.01923076923077</v>
       </c>
       <c r="E43">
-        <v>321.3944175057334</v>
+        <v>607.8364898534761</v>
       </c>
       <c r="F43">
-        <v>0.01661307248174674</v>
+        <v>26.27203972047952</v>
       </c>
       <c r="G43" t="s">
         <v>9</v>
@@ -1405,19 +1405,19 @@
         <v>8</v>
       </c>
       <c r="B44" s="2">
-        <v>44676.00347222222</v>
+        <v>44704.00347222222</v>
       </c>
       <c r="C44">
-        <v>40176.79510712347</v>
+        <v>16.84</v>
       </c>
       <c r="D44">
-        <v>0.002488998929192082</v>
+        <v>11.87648456057007</v>
       </c>
       <c r="E44">
-        <v>421.3944175057334</v>
+        <v>807.8364898534761</v>
       </c>
       <c r="F44">
-        <v>0.01412407355255466</v>
+        <v>14.39555515990945</v>
       </c>
       <c r="G44" t="s">
         <v>9</v>
@@ -1428,19 +1428,19 @@
         <v>7</v>
       </c>
       <c r="B45" s="2">
-        <v>44677.00347222222</v>
+        <v>44705.00347222222</v>
       </c>
       <c r="C45">
-        <v>38080.70743589187</v>
+        <v>16.1</v>
       </c>
       <c r="D45">
-        <v>0.002626001635299136</v>
+        <v>12.4223602484472</v>
       </c>
       <c r="E45">
-        <v>321.3944175057334</v>
+        <v>607.8364898534761</v>
       </c>
       <c r="F45">
-        <v>0.0167500751878538</v>
+        <v>26.81791540835665</v>
       </c>
       <c r="G45" t="s">
         <v>9</v>
@@ -1451,19 +1451,19 @@
         <v>8</v>
       </c>
       <c r="B46" s="2">
-        <v>44678.00347222222</v>
+        <v>44706.00347222222</v>
       </c>
       <c r="C46">
-        <v>39080.6154321951</v>
+        <v>16.91</v>
       </c>
       <c r="D46">
-        <v>0.002558813337356473</v>
+        <v>11.82732111176818</v>
       </c>
       <c r="E46">
-        <v>421.3944175057334</v>
+        <v>807.8364898534761</v>
       </c>
       <c r="F46">
-        <v>0.01419126185049733</v>
+        <v>14.99059429658847</v>
       </c>
       <c r="G46" t="s">
         <v>9</v>
@@ -1474,19 +1474,19 @@
         <v>8</v>
       </c>
       <c r="B47" s="2">
-        <v>44679.00347222222</v>
+        <v>44707.00347222222</v>
       </c>
       <c r="C47">
-        <v>39881.63670329301</v>
+        <v>17.78</v>
       </c>
       <c r="D47">
-        <v>0.002507419661433881</v>
+        <v>11.24859392575928</v>
       </c>
       <c r="E47">
-        <v>521.3944175057334</v>
+        <v>1007.836489853476</v>
       </c>
       <c r="F47">
-        <v>0.01168384218906345</v>
+        <v>3.742000370829192</v>
       </c>
       <c r="G47" t="s">
         <v>9</v>
@@ -1494,22 +1494,22 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B48" s="2">
-        <v>44680.00347222222</v>
+        <v>44708.00347222222</v>
       </c>
       <c r="C48">
-        <v>38501.24442963787</v>
+        <v>18.67</v>
       </c>
       <c r="D48">
-        <v>0.002597318644667522</v>
+        <v>3.742000370829192</v>
       </c>
       <c r="E48">
-        <v>421.3944175057334</v>
+        <v>1077.699636776857</v>
       </c>
       <c r="F48">
-        <v>0.01428116083373097</v>
+        <v>0</v>
       </c>
       <c r="G48" t="s">
         <v>9</v>
@@ -1520,19 +1520,19 @@
         <v>7</v>
       </c>
       <c r="B49" s="2">
-        <v>44681.00347222222</v>
+        <v>44715.00347222222</v>
       </c>
       <c r="C49">
-        <v>38354.69081997343</v>
+        <v>18.66</v>
       </c>
       <c r="D49">
-        <v>0.00260724302196498</v>
+        <v>10.71811361200429</v>
       </c>
       <c r="E49">
-        <v>321.3944175057334</v>
+        <v>877.6996367768572</v>
       </c>
       <c r="F49">
-        <v>0.01688840385569595</v>
+        <v>10.71811361200429</v>
       </c>
       <c r="G49" t="s">
         <v>9</v>
@@ -1540,22 +1540,22 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B50" s="2">
-        <v>44682.00347222222</v>
+        <v>44718.00347222222</v>
       </c>
       <c r="C50">
-        <v>38264.68148848187</v>
+        <v>18.72</v>
       </c>
       <c r="D50">
-        <v>0.002613375993475895</v>
+        <v>10.68376068376068</v>
       </c>
       <c r="E50">
-        <v>221.3944175057334</v>
+        <v>1077.699636776857</v>
       </c>
       <c r="F50">
-        <v>0.01950177984917184</v>
+        <v>0.03435292824360481</v>
       </c>
       <c r="G50" t="s">
         <v>9</v>
@@ -1563,22 +1563,22 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B51" s="2">
-        <v>44683.00347222222</v>
+        <v>44719.00347222222</v>
       </c>
       <c r="C51">
-        <v>38244.79653418306</v>
+        <v>18.86</v>
       </c>
       <c r="D51">
-        <v>0.002614734789100534</v>
+        <v>0.03435292824360481</v>
       </c>
       <c r="E51">
-        <v>121.3944175057334</v>
+        <v>1078.347533003532</v>
       </c>
       <c r="F51">
-        <v>0.02211651463827238</v>
+        <v>0</v>
       </c>
       <c r="G51" t="s">
         <v>9</v>
@@ -1589,19 +1589,19 @@
         <v>7</v>
       </c>
       <c r="B52" s="2">
-        <v>44684.00347222222</v>
+        <v>44721.00347222222</v>
       </c>
       <c r="C52">
-        <v>37783.13622366568</v>
+        <v>17.98</v>
       </c>
       <c r="D52">
-        <v>0.002646683414738993</v>
+        <v>11.12347052280311</v>
       </c>
       <c r="E52">
-        <v>21.39441750573337</v>
+        <v>878.3475330035317</v>
       </c>
       <c r="F52">
-        <v>0.02476319805301137</v>
+        <v>11.12347052280311</v>
       </c>
       <c r="G52" t="s">
         <v>9</v>
@@ -1609,22 +1609,22 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B53" s="2">
-        <v>44685.00347222222</v>
+        <v>44722.00347222222</v>
       </c>
       <c r="C53">
-        <v>39742.07561453685</v>
+        <v>16.91</v>
       </c>
       <c r="D53">
-        <v>0.002516224893986715</v>
+        <v>11.82732111176818</v>
       </c>
       <c r="E53">
-        <v>121.3944175057334</v>
+        <v>678.3475330035317</v>
       </c>
       <c r="F53">
-        <v>0.02224697315902465</v>
+        <v>22.9507916345713</v>
       </c>
       <c r="G53" t="s">
         <v>9</v>
@@ -1635,19 +1635,19 @@
         <v>7</v>
       </c>
       <c r="B54" s="2">
-        <v>44686.00347222222</v>
+        <v>44725.00347222222</v>
       </c>
       <c r="C54">
-        <v>36416.1391392059</v>
+        <v>15.59</v>
       </c>
       <c r="D54">
-        <v>0.00274603520207718</v>
+        <v>12.82873636946761</v>
       </c>
       <c r="E54">
-        <v>21.39441750573337</v>
+        <v>478.3475330035317</v>
       </c>
       <c r="F54">
-        <v>0.02499300836110183</v>
+        <v>35.7795280040389</v>
       </c>
       <c r="G54" t="s">
         <v>9</v>
@@ -1658,19 +1658,19 @@
         <v>8</v>
       </c>
       <c r="B55" s="2">
-        <v>44694.00347222222</v>
+        <v>44726.00347222222</v>
       </c>
       <c r="C55">
-        <v>29660.85193294239</v>
+        <v>15.77</v>
       </c>
       <c r="D55">
-        <v>0.003371447328150964</v>
+        <v>12.68230818008878</v>
       </c>
       <c r="E55">
-        <v>121.3944175057334</v>
+        <v>678.3475330035317</v>
       </c>
       <c r="F55">
-        <v>0.02162156103295087</v>
+        <v>23.09721982395013</v>
       </c>
       <c r="G55" t="s">
         <v>9</v>
@@ -1678,22 +1678,22 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B56" s="2">
-        <v>44695.00347222222</v>
+        <v>44727.00347222222</v>
       </c>
       <c r="C56">
-        <v>29293.17723474272</v>
+        <v>16.46</v>
       </c>
       <c r="D56">
-        <v>0.003413764208595186</v>
+        <v>12.15066828675577</v>
       </c>
       <c r="E56">
-        <v>21.39441750573337</v>
+        <v>878.3475330035317</v>
       </c>
       <c r="F56">
-        <v>0.02503532524154605</v>
+        <v>10.94655153719436</v>
       </c>
       <c r="G56" t="s">
         <v>9</v>
@@ -1701,22 +1701,22 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B57" s="2">
-        <v>44696.00347222222</v>
+        <v>44728.00347222222</v>
       </c>
       <c r="C57">
-        <v>30917.00502838426</v>
+        <v>15.54</v>
       </c>
       <c r="D57">
-        <v>0.003234465948696909</v>
+        <v>12.87001287001287</v>
       </c>
       <c r="E57">
-        <v>121.3944175057334</v>
+        <v>678.3475330035317</v>
       </c>
       <c r="F57">
-        <v>0.02180085929284915</v>
+        <v>23.81656440720723</v>
       </c>
       <c r="G57" t="s">
         <v>9</v>
@@ -1724,22 +1724,22 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B58" s="2">
-        <v>44697.00347222222</v>
+        <v>44729.00347222222</v>
       </c>
       <c r="C58">
-        <v>29870.66989854466</v>
+        <v>15.81</v>
       </c>
       <c r="D58">
-        <v>0.003347765561992708</v>
+        <v>12.65022137887413</v>
       </c>
       <c r="E58">
-        <v>21.39441750573337</v>
+        <v>878.3475330035317</v>
       </c>
       <c r="F58">
-        <v>0.02514862485484185</v>
+        <v>11.1663430283331</v>
       </c>
       <c r="G58" t="s">
         <v>9</v>
@@ -1750,19 +1750,19 @@
         <v>8</v>
       </c>
       <c r="B59" s="2">
-        <v>44700.00347222222</v>
+        <v>44733.00347222222</v>
       </c>
       <c r="C59">
-        <v>30172.4022346308</v>
+        <v>16.49</v>
       </c>
       <c r="D59">
-        <v>0.003314286983925449</v>
+        <v>11.1663430283331</v>
       </c>
       <c r="E59">
-        <v>121.3944175057334</v>
+        <v>1062.480529540745</v>
       </c>
       <c r="F59">
-        <v>0.02183433787091641</v>
+        <v>0</v>
       </c>
       <c r="G59" t="s">
         <v>9</v>
@@ -1773,19 +1773,19 @@
         <v>7</v>
       </c>
       <c r="B60" s="2">
-        <v>44701.00347222222</v>
+        <v>44740.00347222222</v>
       </c>
       <c r="C60">
-        <v>29144.9102742511</v>
+        <v>15.93</v>
       </c>
       <c r="D60">
-        <v>0.003431130823838831</v>
+        <v>12.5549278091651</v>
       </c>
       <c r="E60">
-        <v>21.39441750573337</v>
+        <v>862.4805295407446</v>
       </c>
       <c r="F60">
-        <v>0.02526546869475524</v>
+        <v>12.5549278091651</v>
       </c>
       <c r="G60" t="s">
         <v>9</v>
@@ -1793,22 +1793,22 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B61" s="2">
-        <v>44703.00347222222</v>
+        <v>44741.00347222222</v>
       </c>
       <c r="C61">
-        <v>29873.58832900925</v>
+        <v>15.48</v>
       </c>
       <c r="D61">
-        <v>0.003347438509852308</v>
+        <v>12.91989664082687</v>
       </c>
       <c r="E61">
-        <v>121.3944175057334</v>
+        <v>662.4805295407446</v>
       </c>
       <c r="F61">
-        <v>0.02191803018490293</v>
+        <v>25.47482444999197</v>
       </c>
       <c r="G61" t="s">
         <v>9</v>
@@ -1819,19 +1819,19 @@
         <v>7</v>
       </c>
       <c r="B62" s="2">
-        <v>44704.00347222222</v>
+        <v>44742.00347222222</v>
       </c>
       <c r="C62">
-        <v>29276.8765182434</v>
+        <v>15.09</v>
       </c>
       <c r="D62">
-        <v>0.003415664916907603</v>
+        <v>13.25381047051027</v>
       </c>
       <c r="E62">
-        <v>21.39441750573337</v>
+        <v>462.4805295407446</v>
       </c>
       <c r="F62">
-        <v>0.02533369510181054</v>
+        <v>38.72863492050224</v>
       </c>
       <c r="G62" t="s">
         <v>9</v>
@@ -1839,22 +1839,22 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B63" s="2">
-        <v>44706.00347222222</v>
+        <v>44743.00347222222</v>
       </c>
       <c r="C63">
-        <v>29756.89497198713</v>
+        <v>14.46</v>
       </c>
       <c r="D63">
-        <v>0.003360565680462934</v>
+        <v>13.83125864453665</v>
       </c>
       <c r="E63">
-        <v>121.3944175057334</v>
+        <v>262.4805295407446</v>
       </c>
       <c r="F63">
-        <v>0.0219731294213476</v>
+        <v>52.5598935650389</v>
       </c>
       <c r="G63" t="s">
         <v>9</v>
@@ -1862,22 +1862,22 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B64" s="2">
-        <v>44707.00347222222</v>
+        <v>44747.00347222222</v>
       </c>
       <c r="C64">
-        <v>29390.39717829935</v>
+        <v>14.9</v>
       </c>
       <c r="D64">
-        <v>0.003402471882000827</v>
+        <v>13.42281879194631</v>
       </c>
       <c r="E64">
-        <v>21.39441750573337</v>
+        <v>462.4805295407446</v>
       </c>
       <c r="F64">
-        <v>0.02537560130334843</v>
+        <v>39.13707477309259</v>
       </c>
       <c r="G64" t="s">
         <v>9</v>
@@ -1888,19 +1888,19 @@
         <v>8</v>
       </c>
       <c r="B65" s="2">
-        <v>44710.00347222222</v>
+        <v>44748.00347222222</v>
       </c>
       <c r="C65">
-        <v>29122.30617685366</v>
+        <v>15.07</v>
       </c>
       <c r="D65">
-        <v>0.003433793992574659</v>
+        <v>13.271400132714</v>
       </c>
       <c r="E65">
-        <v>121.3944175057334</v>
+        <v>662.4805295407446</v>
       </c>
       <c r="F65">
-        <v>0.02194180731077377</v>
+        <v>25.86567464037859</v>
       </c>
       <c r="G65" t="s">
         <v>9</v>
@@ -1911,19 +1911,19 @@
         <v>8</v>
       </c>
       <c r="B66" s="2">
-        <v>44711.00347222222</v>
+        <v>44749.00347222222</v>
       </c>
       <c r="C66">
-        <v>31221.76018499411</v>
+        <v>15.79</v>
       </c>
       <c r="D66">
-        <v>0.003202894372626124</v>
+        <v>12.66624445851805</v>
       </c>
       <c r="E66">
-        <v>221.3944175057334</v>
+        <v>862.4805295407446</v>
       </c>
       <c r="F66">
-        <v>0.01873891293814764</v>
+        <v>13.19943018186054</v>
       </c>
       <c r="G66" t="s">
         <v>9</v>
@@ -1934,19 +1934,19 @@
         <v>8</v>
       </c>
       <c r="B67" s="2">
-        <v>44712.00347222222</v>
+        <v>44750.00347222222</v>
       </c>
       <c r="C67">
-        <v>31744.85687505701</v>
+        <v>15.78</v>
       </c>
       <c r="D67">
-        <v>0.003150116580886945</v>
+        <v>12.67427122940431</v>
       </c>
       <c r="E67">
-        <v>321.3944175057334</v>
+        <v>1062.480529540745</v>
       </c>
       <c r="F67">
-        <v>0.0155887963572607</v>
+        <v>0.5251589524562323</v>
       </c>
       <c r="G67" t="s">
         <v>9</v>
@@ -1957,19 +1957,19 @@
         <v>7</v>
       </c>
       <c r="B68" s="2">
-        <v>44713.00347222222</v>
+        <v>44753.00347222222</v>
       </c>
       <c r="C68">
-        <v>29574.0726343839</v>
+        <v>15.08</v>
       </c>
       <c r="D68">
-        <v>0.003381340177129894</v>
+        <v>13.26259946949602</v>
       </c>
       <c r="E68">
-        <v>221.3944175057334</v>
+        <v>862.4805295407446</v>
       </c>
       <c r="F68">
-        <v>0.01897013653439059</v>
+        <v>13.78775842195225</v>
       </c>
       <c r="G68" t="s">
         <v>9</v>
@@ -1980,19 +1980,19 @@
         <v>8</v>
       </c>
       <c r="B69" s="2">
-        <v>44714.00347222222</v>
+        <v>44754.00347222222</v>
       </c>
       <c r="C69">
-        <v>30219.08759730421</v>
+        <v>15.03</v>
       </c>
       <c r="D69">
-        <v>0.003309166753562766</v>
+        <v>13.30671989354624</v>
       </c>
       <c r="E69">
-        <v>321.3944175057334</v>
+        <v>1062.480529540745</v>
       </c>
       <c r="F69">
-        <v>0.01566096978082783</v>
+        <v>0.4810385284060121</v>
       </c>
       <c r="G69" t="s">
         <v>9</v>
@@ -2000,22 +2000,22 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B70" s="2">
-        <v>44715.00347222222</v>
+        <v>44755.00347222222</v>
       </c>
       <c r="C70">
-        <v>29631.54525552084</v>
+        <v>15.1</v>
       </c>
       <c r="D70">
-        <v>0.003374781812344679</v>
+        <v>0.4810385284060121</v>
       </c>
       <c r="E70">
-        <v>221.3944175057334</v>
+        <v>1069.744211319675</v>
       </c>
       <c r="F70">
-        <v>0.0190357515931725</v>
+        <v>0</v>
       </c>
       <c r="G70" t="s">
         <v>9</v>
@@ -2026,19 +2026,19 @@
         <v>7</v>
       </c>
       <c r="B71" s="2">
-        <v>44716.00347222222</v>
+        <v>44764.00347222222</v>
       </c>
       <c r="C71">
-        <v>29677.95747258656</v>
+        <v>17.26</v>
       </c>
       <c r="D71">
-        <v>0.003369504120772789</v>
+        <v>11.5874855156431</v>
       </c>
       <c r="E71">
-        <v>121.3944175057334</v>
+        <v>869.7442113196753</v>
       </c>
       <c r="F71">
-        <v>0.02240525571394529</v>
+        <v>11.5874855156431</v>
       </c>
       <c r="G71" t="s">
         <v>9</v>
@@ -2049,19 +2049,19 @@
         <v>8</v>
       </c>
       <c r="B72" s="2">
-        <v>44717.00347222222</v>
+        <v>44767.00347222222</v>
       </c>
       <c r="C72">
-        <v>29858.43918463289</v>
+        <v>16.96</v>
       </c>
       <c r="D72">
-        <v>0.003349136884940273</v>
+        <v>11.5874855156431</v>
       </c>
       <c r="E72">
-        <v>221.3944175057334</v>
+        <v>1066.267965664982</v>
       </c>
       <c r="F72">
-        <v>0.01905611882900502</v>
+        <v>0</v>
       </c>
       <c r="G72" t="s">
         <v>9</v>
@@ -2069,22 +2069,22 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B73" s="2">
-        <v>44718.00347222222</v>
+        <v>44768.00347222222</v>
       </c>
       <c r="C73">
-        <v>31391.11323304289</v>
+        <v>16.48</v>
       </c>
       <c r="D73">
-        <v>0.003185614962349856</v>
+        <v>12.13592233009709</v>
       </c>
       <c r="E73">
-        <v>321.3944175057334</v>
+        <v>866.2679656649823</v>
       </c>
       <c r="F73">
-        <v>0.01587050386665517</v>
+        <v>12.13592233009709</v>
       </c>
       <c r="G73" t="s">
         <v>9</v>
@@ -2092,22 +2092,22 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B74" s="2">
-        <v>44719.00347222222</v>
+        <v>44769.00347222222</v>
       </c>
       <c r="C74">
-        <v>31341.80354788036</v>
+        <v>17.72</v>
       </c>
       <c r="D74">
-        <v>0.00319062685231983</v>
+        <v>11.28668171557562</v>
       </c>
       <c r="E74">
-        <v>221.3944175057334</v>
+        <v>1066.267965664982</v>
       </c>
       <c r="F74">
-        <v>0.01906113071897499</v>
+        <v>0.8492406145214648</v>
       </c>
       <c r="G74" t="s">
         <v>9</v>
@@ -2115,22 +2115,22 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B75" s="2">
-        <v>44720.00347222222</v>
+        <v>44770.00347222222</v>
       </c>
       <c r="C75">
-        <v>30065.95225410706</v>
+        <v>17.93</v>
       </c>
       <c r="D75">
-        <v>0.003326021379759885</v>
+        <v>0.8492406145214648</v>
       </c>
       <c r="E75">
-        <v>121.3944175057334</v>
+        <v>1081.494849883352</v>
       </c>
       <c r="F75">
-        <v>0.02238715209873488</v>
+        <v>0</v>
       </c>
       <c r="G75" t="s">
         <v>9</v>
@@ -2141,19 +2141,19 @@
         <v>7</v>
       </c>
       <c r="B76" s="2">
-        <v>44721.00347222222</v>
+        <v>44781.00347222222</v>
       </c>
       <c r="C76">
-        <v>30133.13160259414</v>
+        <v>17.73</v>
       </c>
       <c r="D76">
-        <v>0.003318606287551974</v>
+        <v>11.28031584884377</v>
       </c>
       <c r="E76">
-        <v>21.39441750573337</v>
+        <v>881.4948498833521</v>
       </c>
       <c r="F76">
-        <v>0.02570575838628685</v>
+        <v>11.28031584884377</v>
       </c>
       <c r="G76" t="s">
         <v>9</v>
@@ -2161,22 +2161,22 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B77" s="2">
-        <v>44731.00347222222</v>
+        <v>44782.00347222222</v>
       </c>
       <c r="C77">
-        <v>20569.57074813907</v>
+        <v>17.03</v>
       </c>
       <c r="D77">
-        <v>0.004861550161859698</v>
+        <v>11.74398120963006</v>
       </c>
       <c r="E77">
-        <v>121.3944175057334</v>
+        <v>681.4948498833521</v>
       </c>
       <c r="F77">
-        <v>0.02084420822442715</v>
+        <v>23.02429705847383</v>
       </c>
       <c r="G77" t="s">
         <v>9</v>
@@ -2187,19 +2187,19 @@
         <v>8</v>
       </c>
       <c r="B78" s="2">
-        <v>44732.00347222222</v>
+        <v>44783.00347222222</v>
       </c>
       <c r="C78">
-        <v>20455.45358181849</v>
+        <v>18.03</v>
       </c>
       <c r="D78">
-        <v>0.004888671844895359</v>
+        <v>11.09262340543538</v>
       </c>
       <c r="E78">
-        <v>221.3944175057334</v>
+        <v>881.4948498833521</v>
       </c>
       <c r="F78">
-        <v>0.01595553637953179</v>
+        <v>11.93167365303845</v>
       </c>
       <c r="G78" t="s">
         <v>9</v>
@@ -2210,19 +2210,19 @@
         <v>8</v>
       </c>
       <c r="B79" s="2">
-        <v>44733.00347222222</v>
+        <v>44784.00347222222</v>
       </c>
       <c r="C79">
-        <v>20807.16923425474</v>
+        <v>17.87</v>
       </c>
       <c r="D79">
-        <v>0.004806035788634356</v>
+        <v>11.19194180190263</v>
       </c>
       <c r="E79">
-        <v>321.3944175057334</v>
+        <v>1081.494849883352</v>
       </c>
       <c r="F79">
-        <v>0.01114950059089744</v>
+        <v>0.7397318511358169</v>
       </c>
       <c r="G79" t="s">
         <v>9</v>
@@ -2230,22 +2230,22 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B80" s="2">
-        <v>44734.00347222222</v>
+        <v>44785.00347222222</v>
       </c>
       <c r="C80">
-        <v>19816.13212873755</v>
+        <v>18.65</v>
       </c>
       <c r="D80">
-        <v>0.00504639348134841</v>
+        <v>0.7397318511358169</v>
       </c>
       <c r="E80">
-        <v>221.3944175057334</v>
+        <v>1095.290848907035</v>
       </c>
       <c r="F80">
-        <v>0.01619589407224585</v>
+        <v>0</v>
       </c>
       <c r="G80" t="s">
         <v>9</v>
@@ -2253,22 +2253,22 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B81" s="2">
-        <v>44735.00347222222</v>
+        <v>44790.00347222222</v>
       </c>
       <c r="C81">
-        <v>20745.79228033899</v>
+        <v>18.27</v>
       </c>
       <c r="D81">
-        <v>0.004820254567706776</v>
+        <v>10.94690749863164</v>
       </c>
       <c r="E81">
-        <v>321.3944175057334</v>
+        <v>895.2908489070351</v>
       </c>
       <c r="F81">
-        <v>0.01137563950453907</v>
+        <v>10.94690749863164</v>
       </c>
       <c r="G81" t="s">
         <v>9</v>
@@ -2279,19 +2279,19 @@
         <v>8</v>
       </c>
       <c r="B82" s="2">
-        <v>44736.00347222222</v>
+        <v>44791.00347222222</v>
       </c>
       <c r="C82">
-        <v>21135.95364046628</v>
+        <v>18.71</v>
       </c>
       <c r="D82">
-        <v>0.004731274571332468</v>
+        <v>10.68947087119188</v>
       </c>
       <c r="E82">
-        <v>421.3944175057334</v>
+        <v>1095.290848907035</v>
       </c>
       <c r="F82">
-        <v>0.006644364933206606</v>
+        <v>0.2574366274397608</v>
       </c>
       <c r="G82" t="s">
         <v>9</v>
@@ -2299,22 +2299,22 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B83" s="2">
-        <v>44737.00347222222</v>
+        <v>44792.00347222222</v>
       </c>
       <c r="C83">
-        <v>21178.53890455578</v>
+        <v>17.8</v>
       </c>
       <c r="D83">
-        <v>0.004721761045493498</v>
+        <v>11.23595505617977</v>
       </c>
       <c r="E83">
-        <v>521.3944175057334</v>
+        <v>895.2908489070351</v>
       </c>
       <c r="F83">
-        <v>0.001922603887713108</v>
+        <v>11.49339168361954</v>
       </c>
       <c r="G83" t="s">
         <v>9</v>
@@ -2322,22 +2322,22 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B84" s="2">
-        <v>44738.00347222222</v>
+        <v>44795.00347222222</v>
       </c>
       <c r="C84">
-        <v>21338.85123836155</v>
+        <v>16.98</v>
       </c>
       <c r="D84">
-        <v>0.001922603887713108</v>
+        <v>11.77856301531213</v>
       </c>
       <c r="E84">
-        <v>562.420575855939</v>
+        <v>695.2908489070351</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>23.27195469893167</v>
       </c>
       <c r="G84" t="s">
         <v>9</v>
@@ -2345,22 +2345,22 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B85" s="2">
-        <v>44739.00347222222</v>
+        <v>44796.00347222222</v>
       </c>
       <c r="C85">
-        <v>20893.31039628061</v>
+        <v>17.13</v>
       </c>
       <c r="D85">
-        <v>0.004786220953181351</v>
+        <v>11.67542323409224</v>
       </c>
       <c r="E85">
-        <v>462.420575855939</v>
+        <v>895.2908489070351</v>
       </c>
       <c r="F85">
-        <v>0.004786220953181351</v>
+        <v>11.59653146483943</v>
       </c>
       <c r="G85" t="s">
         <v>9</v>
@@ -2368,22 +2368,22 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B86" s="2">
-        <v>44740.00347222222</v>
+        <v>44797.00347222222</v>
       </c>
       <c r="C86">
-        <v>20228.91016955272</v>
+        <v>17.16</v>
       </c>
       <c r="D86">
-        <v>0.004943420043978133</v>
+        <v>11.59653146483943</v>
       </c>
       <c r="E86">
-        <v>362.420575855939</v>
+        <v>1094.28732884368</v>
       </c>
       <c r="F86">
-        <v>0.009729640997159485</v>
+        <v>0</v>
       </c>
       <c r="G86" t="s">
         <v>9</v>
@@ -2394,19 +2394,19 @@
         <v>7</v>
       </c>
       <c r="B87" s="2">
-        <v>44741.00347222222</v>
+        <v>44799.00347222222</v>
       </c>
       <c r="C87">
-        <v>20126.73723766521</v>
+        <v>16.19</v>
       </c>
       <c r="D87">
-        <v>0.004968515205378636</v>
+        <v>12.35330450895614</v>
       </c>
       <c r="E87">
-        <v>262.420575855939</v>
+        <v>894.2873288436797</v>
       </c>
       <c r="F87">
-        <v>0.01469815620253812</v>
+        <v>12.35330450895614</v>
       </c>
       <c r="G87" t="s">
         <v>9</v>
@@ -2417,19 +2417,19 @@
         <v>7</v>
       </c>
       <c r="B88" s="2">
-        <v>44742.00347222222</v>
+        <v>44802.00347222222</v>
       </c>
       <c r="C88">
-        <v>18694.15733516406</v>
+        <v>15.73</v>
       </c>
       <c r="D88">
-        <v>0.005349264917755781</v>
+        <v>12.71455816910362</v>
       </c>
       <c r="E88">
-        <v>162.420575855939</v>
+        <v>694.2873288436797</v>
       </c>
       <c r="F88">
-        <v>0.0200474211202939</v>
+        <v>25.06786267805977</v>
       </c>
       <c r="G88" t="s">
         <v>9</v>
@@ -2437,22 +2437,22 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B89" s="2">
-        <v>44743.00347222222</v>
+        <v>44803.00347222222</v>
       </c>
       <c r="C89">
-        <v>19372.26498080156</v>
+        <v>15.42</v>
       </c>
       <c r="D89">
-        <v>0.005162019004959033</v>
+        <v>12.97016861219196</v>
       </c>
       <c r="E89">
-        <v>262.420575855939</v>
+        <v>494.2873288436797</v>
       </c>
       <c r="F89">
-        <v>0.01488540211533487</v>
+        <v>38.03803129025172</v>
       </c>
       <c r="G89" t="s">
         <v>9</v>
@@ -2463,19 +2463,19 @@
         <v>7</v>
       </c>
       <c r="B90" s="2">
-        <v>44744.00347222222</v>
+        <v>44804.00347222222</v>
       </c>
       <c r="C90">
-        <v>19201.51866683298</v>
+        <v>15.03</v>
       </c>
       <c r="D90">
-        <v>0.005207921401171837</v>
+        <v>13.30671989354624</v>
       </c>
       <c r="E90">
-        <v>162.420575855939</v>
+        <v>294.2873288436797</v>
       </c>
       <c r="F90">
-        <v>0.02009332351650671</v>
+        <v>51.34475118379797</v>
       </c>
       <c r="G90" t="s">
         <v>9</v>
@@ -2483,22 +2483,22 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B91" s="2">
-        <v>44745.00347222222</v>
+        <v>44805.00347222222</v>
       </c>
       <c r="C91">
-        <v>19367.56549375311</v>
+        <v>13.88</v>
       </c>
       <c r="D91">
-        <v>0.005163271554819544</v>
+        <v>14.40922190201729</v>
       </c>
       <c r="E91">
-        <v>262.420575855939</v>
+        <v>94.28732884367969</v>
       </c>
       <c r="F91">
-        <v>0.01493005196168716</v>
+        <v>65.75397308581526</v>
       </c>
       <c r="G91" t="s">
         <v>9</v>
@@ -2509,19 +2509,19 @@
         <v>8</v>
       </c>
       <c r="B92" s="2">
-        <v>44746.00347222222</v>
+        <v>44811.00347222222</v>
       </c>
       <c r="C92">
-        <v>19732.78128043931</v>
+        <v>13.66</v>
       </c>
       <c r="D92">
-        <v>0.005067709340047664</v>
+        <v>14.64128843338214</v>
       </c>
       <c r="E92">
-        <v>362.420575855939</v>
+        <v>294.2873288436797</v>
       </c>
       <c r="F92">
-        <v>0.009862342621639496</v>
+        <v>51.11268465243312</v>
       </c>
       <c r="G92" t="s">
         <v>9</v>
@@ -2532,19 +2532,19 @@
         <v>8</v>
       </c>
       <c r="B93" s="2">
-        <v>44747.00347222222</v>
+        <v>44812.00347222222</v>
       </c>
       <c r="C93">
-        <v>20418.6622857117</v>
+        <v>13.93</v>
       </c>
       <c r="D93">
-        <v>0.004897480481372019</v>
+        <v>14.35750179468772</v>
       </c>
       <c r="E93">
-        <v>462.420575855939</v>
+        <v>494.2873288436797</v>
       </c>
       <c r="F93">
-        <v>0.004964862140267478</v>
+        <v>36.7551828577454</v>
       </c>
       <c r="G93" t="s">
         <v>9</v>
@@ -2552,22 +2552,22 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B94" s="2">
-        <v>44748.00347222222</v>
+        <v>44813.00347222222</v>
       </c>
       <c r="C94">
-        <v>20334.48785647024</v>
+        <v>14.33</v>
       </c>
       <c r="D94">
-        <v>0.004917753557691936</v>
+        <v>13.95673412421493</v>
       </c>
       <c r="E94">
-        <v>362.420575855939</v>
+        <v>694.2873288436797</v>
       </c>
       <c r="F94">
-        <v>0.009882615697959413</v>
+        <v>22.79844873353046</v>
       </c>
       <c r="G94" t="s">
         <v>9</v>
@@ -2578,19 +2578,19 @@
         <v>8</v>
       </c>
       <c r="B95" s="2">
-        <v>44749.00347222222</v>
+        <v>44816.00347222222</v>
       </c>
       <c r="C95">
-        <v>21591.27847745296</v>
+        <v>14.44</v>
       </c>
       <c r="D95">
-        <v>0.004631499709682621</v>
+        <v>13.85041551246537</v>
       </c>
       <c r="E95">
-        <v>462.420575855939</v>
+        <v>894.2873288436797</v>
       </c>
       <c r="F95">
-        <v>0.005251115988276793</v>
+        <v>8.948033221065089</v>
       </c>
       <c r="G95" t="s">
         <v>9</v>
@@ -2598,22 +2598,22 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B96" s="2">
-        <v>44750.00347222222</v>
+        <v>44817.00347222222</v>
       </c>
       <c r="C96">
-        <v>21836.27049501313</v>
+        <v>13.07</v>
       </c>
       <c r="D96">
-        <v>0.004579536602774614</v>
+        <v>15.30221882172915</v>
       </c>
       <c r="E96">
-        <v>562.420575855939</v>
+        <v>694.2873288436797</v>
       </c>
       <c r="F96">
-        <v>0.0006715793855021782</v>
+        <v>24.25025204279424</v>
       </c>
       <c r="G96" t="s">
         <v>9</v>
@@ -2621,22 +2621,22 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B97" s="2">
-        <v>44751.00347222222</v>
+        <v>44818.00347222222</v>
       </c>
       <c r="C97">
-        <v>21662.12886489775</v>
+        <v>13.07</v>
       </c>
       <c r="D97">
-        <v>0.004616351450205077</v>
+        <v>15.30221882172915</v>
       </c>
       <c r="E97">
-        <v>462.420575855939</v>
+        <v>894.2873288436797</v>
       </c>
       <c r="F97">
-        <v>0.005287930835707255</v>
+        <v>8.948033221065087</v>
       </c>
       <c r="G97" t="s">
         <v>9</v>
@@ -2647,19 +2647,19 @@
         <v>7</v>
       </c>
       <c r="B98" s="2">
-        <v>44752.00347222222</v>
+        <v>44819.00347222222</v>
       </c>
       <c r="C98">
-        <v>20963.69408962489</v>
+        <v>12.87</v>
       </c>
       <c r="D98">
-        <v>0.004770151652303056</v>
+        <v>15.54001554001554</v>
       </c>
       <c r="E98">
-        <v>362.420575855939</v>
+        <v>694.2873288436797</v>
       </c>
       <c r="F98">
-        <v>0.01005808248801031</v>
+        <v>24.48804876108063</v>
       </c>
       <c r="G98" t="s">
         <v>9</v>
@@ -2667,22 +2667,22 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B99" s="2">
-        <v>44753.00347222222</v>
+        <v>44820.00347222222</v>
       </c>
       <c r="C99">
-        <v>20359.39129879925</v>
+        <v>13.14</v>
       </c>
       <c r="D99">
-        <v>0.004911738201421462</v>
+        <v>15.220700152207</v>
       </c>
       <c r="E99">
-        <v>262.420575855939</v>
+        <v>894.2873288436797</v>
       </c>
       <c r="F99">
-        <v>0.01496982068943177</v>
+        <v>9.267348608873625</v>
       </c>
       <c r="G99" t="s">
         <v>9</v>
@@ -2690,22 +2690,22 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B100" s="2">
-        <v>44754.00347222222</v>
+        <v>44823.00347222222</v>
       </c>
       <c r="C100">
-        <v>19399.30971102007</v>
+        <v>13.32</v>
       </c>
       <c r="D100">
-        <v>0.005154822593671646</v>
+        <v>9.267348608873625</v>
       </c>
       <c r="E100">
-        <v>162.420575855939</v>
+        <v>1017.728412313876</v>
       </c>
       <c r="F100">
-        <v>0.02012464328310342</v>
+        <v>0</v>
       </c>
       <c r="G100" t="s">
         <v>9</v>
@@ -2716,19 +2716,19 @@
         <v>7</v>
       </c>
       <c r="B101" s="2">
-        <v>44755.00347222222</v>
+        <v>44824.00347222222</v>
       </c>
       <c r="C101">
-        <v>19616.96936869151</v>
+        <v>13.11</v>
       </c>
       <c r="D101">
-        <v>0.005097627371514328</v>
+        <v>15.25553012967201</v>
       </c>
       <c r="E101">
-        <v>62.42057585593898</v>
+        <v>817.7284123138763</v>
       </c>
       <c r="F101">
-        <v>0.02522227065461775</v>
+        <v>15.25553012967201</v>
       </c>
       <c r="G101" t="s">
         <v>9</v>
@@ -2739,19 +2739,19 @@
         <v>8</v>
       </c>
       <c r="B102" s="2">
-        <v>44756.00347222222</v>
+        <v>44825.00347222222</v>
       </c>
       <c r="C102">
-        <v>20615.85876244648</v>
+        <v>13.2</v>
       </c>
       <c r="D102">
-        <v>0.004850634705654775</v>
+        <v>15.15151515151515</v>
       </c>
       <c r="E102">
-        <v>162.420575855939</v>
+        <v>1017.728412313876</v>
       </c>
       <c r="F102">
-        <v>0.02037163594896297</v>
+        <v>0.1040149781568562</v>
       </c>
       <c r="G102" t="s">
         <v>9</v>
@@ -2759,22 +2759,22 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B103" s="2">
-        <v>44757.00347222222</v>
+        <v>44826.00347222222</v>
       </c>
       <c r="C103">
-        <v>20901.99460551587</v>
+        <v>12.5</v>
       </c>
       <c r="D103">
-        <v>0.004784232408786996</v>
+        <v>16</v>
       </c>
       <c r="E103">
-        <v>262.420575855939</v>
+        <v>817.7284123138763</v>
       </c>
       <c r="F103">
-        <v>0.01558740354017597</v>
+        <v>16.10401497815685</v>
       </c>
       <c r="G103" t="s">
         <v>9</v>
@@ -2785,19 +2785,19 @@
         <v>8</v>
       </c>
       <c r="B104" s="2">
-        <v>44758.00347222222</v>
+        <v>44827.00347222222</v>
       </c>
       <c r="C104">
-        <v>21196.33928322989</v>
+        <v>12.46</v>
       </c>
       <c r="D104">
-        <v>0.004717795778968208</v>
+        <v>16.05136436597111</v>
       </c>
       <c r="E104">
-        <v>362.420575855939</v>
+        <v>1017.728412313876</v>
       </c>
       <c r="F104">
-        <v>0.01086960776120777</v>
+        <v>0.05265061218574729</v>
       </c>
       <c r="G104" t="s">
         <v>9</v>
@@ -2808,19 +2808,19 @@
         <v>7</v>
       </c>
       <c r="B105" s="2">
-        <v>44759.00347222222</v>
+        <v>44830.00347222222</v>
       </c>
       <c r="C105">
-        <v>20906.52320292275</v>
+        <v>12.17</v>
       </c>
       <c r="D105">
-        <v>0.004783196088100384</v>
+        <v>16.43385373870172</v>
       </c>
       <c r="E105">
-        <v>262.420575855939</v>
+        <v>817.7284123138763</v>
       </c>
       <c r="F105">
-        <v>0.01565280384930815</v>
+        <v>16.48650435088747</v>
       </c>
       <c r="G105" t="s">
         <v>9</v>
@@ -2831,19 +2831,19 @@
         <v>8</v>
       </c>
       <c r="B106" s="2">
-        <v>44760.00347222222</v>
+        <v>44831.00347222222</v>
       </c>
       <c r="C106">
-        <v>21438.07834374472</v>
+        <v>12.35</v>
       </c>
       <c r="D106">
-        <v>0.004664597189942557</v>
+        <v>16.19433198380567</v>
       </c>
       <c r="E106">
-        <v>362.420575855939</v>
+        <v>1017.728412313876</v>
       </c>
       <c r="F106">
-        <v>0.01098820665936559</v>
+        <v>0.2921723670818039</v>
       </c>
       <c r="G106" t="s">
         <v>9</v>
@@ -2854,19 +2854,19 @@
         <v>8</v>
       </c>
       <c r="B107" s="2">
-        <v>44761.00347222222</v>
+        <v>44832.00347222222</v>
       </c>
       <c r="C107">
-        <v>23268.53542018933</v>
+        <v>12.67</v>
       </c>
       <c r="D107">
-        <v>0.004297649086810738</v>
+        <v>0.2921723670818039</v>
       </c>
       <c r="E107">
-        <v>462.420575855939</v>
+        <v>1021.430236204803</v>
       </c>
       <c r="F107">
-        <v>0.006690557572554852</v>
+        <v>0</v>
       </c>
       <c r="G107" t="s">
         <v>9</v>
@@ -2874,22 +2874,22 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B108" s="2">
-        <v>44762.00347222222</v>
+        <v>44833.00347222222</v>
       </c>
       <c r="C108">
-        <v>23197.23934312939</v>
+        <v>12.17</v>
       </c>
       <c r="D108">
-        <v>0.004310857793068305</v>
+        <v>16.43385373870172</v>
       </c>
       <c r="E108">
-        <v>562.420575855939</v>
+        <v>821.4302362048028</v>
       </c>
       <c r="F108">
-        <v>0.002379699779486547</v>
+        <v>16.43385373870172</v>
       </c>
       <c r="G108" t="s">
         <v>9</v>
@@ -2900,19 +2900,19 @@
         <v>7</v>
       </c>
       <c r="B109" s="2">
-        <v>44763.00347222222</v>
+        <v>44834.00347222222</v>
       </c>
       <c r="C109">
-        <v>23068.34962209533</v>
+        <v>12.08</v>
       </c>
       <c r="D109">
-        <v>0.004334943835956863</v>
+        <v>16.55629139072848</v>
       </c>
       <c r="E109">
-        <v>462.420575855939</v>
+        <v>621.4302362048028</v>
       </c>
       <c r="F109">
-        <v>0.00671464361544341</v>
+        <v>32.9901451294302</v>
       </c>
       <c r="G109" t="s">
         <v>9</v>
@@ -2920,22 +2920,22 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B110" s="2">
-        <v>44764.00347222222</v>
+        <v>44837.00347222222</v>
       </c>
       <c r="C110">
-        <v>22627.76410178191</v>
+        <v>12.45</v>
       </c>
       <c r="D110">
-        <v>0.004419349589742502</v>
+        <v>16.06425702811245</v>
       </c>
       <c r="E110">
-        <v>362.420575855939</v>
+        <v>821.4302362048028</v>
       </c>
       <c r="F110">
-        <v>0.01113399320518591</v>
+        <v>16.92588810131775</v>
       </c>
       <c r="G110" t="s">
         <v>9</v>
@@ -2943,22 +2943,22 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B111" s="2">
-        <v>44765.00347222222</v>
+        <v>44838.00347222222</v>
       </c>
       <c r="C111">
-        <v>22278.73721125143</v>
+        <v>13.11</v>
       </c>
       <c r="D111">
-        <v>0.004488584745705291</v>
+        <v>15.25553012967201</v>
       </c>
       <c r="E111">
-        <v>262.420575855939</v>
+        <v>1021.430236204803</v>
       </c>
       <c r="F111">
-        <v>0.0156225779508912</v>
+        <v>1.670357971645746</v>
       </c>
       <c r="G111" t="s">
         <v>9</v>
@@ -2969,19 +2969,19 @@
         <v>8</v>
       </c>
       <c r="B112" s="2">
-        <v>44766.00347222222</v>
+        <v>44839.00347222222</v>
       </c>
       <c r="C112">
-        <v>22670.12557692417</v>
+        <v>13.15</v>
       </c>
       <c r="D112">
-        <v>0.004411091577798299</v>
+        <v>1.670357971645746</v>
       </c>
       <c r="E112">
-        <v>362.420575855939</v>
+        <v>1043.395443531944</v>
       </c>
       <c r="F112">
-        <v>0.0112114863730929</v>
+        <v>0</v>
       </c>
       <c r="G112" t="s">
         <v>9</v>
@@ -2992,19 +2992,19 @@
         <v>7</v>
       </c>
       <c r="B113" s="2">
-        <v>44767.00347222222</v>
+        <v>44841.00347222222</v>
       </c>
       <c r="C113">
-        <v>22162.34750725457</v>
+        <v>12.02</v>
       </c>
       <c r="D113">
-        <v>0.004512157386182409</v>
+        <v>16.63893510815308</v>
       </c>
       <c r="E113">
-        <v>262.420575855939</v>
+        <v>843.3954435319442</v>
       </c>
       <c r="F113">
-        <v>0.01572364375927531</v>
+        <v>16.63893510815308</v>
       </c>
       <c r="G113" t="s">
         <v>9</v>
@@ -3015,19 +3015,19 @@
         <v>7</v>
       </c>
       <c r="B114" s="2">
-        <v>44768.00347222222</v>
+        <v>44844.00347222222</v>
       </c>
       <c r="C114">
-        <v>20942.78890823577</v>
+        <v>11.61</v>
       </c>
       <c r="D114">
-        <v>0.004774913238068066</v>
+        <v>17.22652885443583</v>
       </c>
       <c r="E114">
-        <v>162.420575855939</v>
+        <v>643.3954435319442</v>
       </c>
       <c r="F114">
-        <v>0.02049855699734338</v>
+        <v>33.8654639625889</v>
       </c>
       <c r="G114" t="s">
         <v>9</v>
@@ -3035,22 +3035,22 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B115" s="2">
-        <v>44769.00347222222</v>
+        <v>44845.00347222222</v>
       </c>
       <c r="C115">
-        <v>22723.975076536</v>
+        <v>11.53</v>
       </c>
       <c r="D115">
-        <v>0.004400638517829417</v>
+        <v>17.3460537727667</v>
       </c>
       <c r="E115">
-        <v>262.420575855939</v>
+        <v>443.3954435319442</v>
       </c>
       <c r="F115">
-        <v>0.01609791847951396</v>
+        <v>51.2115177353556</v>
       </c>
       <c r="G115" t="s">
         <v>9</v>
@@ -3058,22 +3058,22 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B116" s="2">
-        <v>44770.00347222222</v>
+        <v>44846.00347222222</v>
       </c>
       <c r="C116">
-        <v>23994.20129353394</v>
+        <v>11.44</v>
       </c>
       <c r="D116">
-        <v>0.004167673629834406</v>
+        <v>17.48251748251748</v>
       </c>
       <c r="E116">
-        <v>362.420575855939</v>
+        <v>243.3954435319442</v>
       </c>
       <c r="F116">
-        <v>0.01193024484967955</v>
+        <v>68.69403521787308</v>
       </c>
       <c r="G116" t="s">
         <v>9</v>
@@ -3084,19 +3084,19 @@
         <v>8</v>
       </c>
       <c r="B117" s="2">
-        <v>44771.00347222222</v>
+        <v>44847.00347222222</v>
       </c>
       <c r="C117">
-        <v>23932.5192151558</v>
+        <v>11.9</v>
       </c>
       <c r="D117">
-        <v>0.004178415113803513</v>
+        <v>16.80672268907563</v>
       </c>
       <c r="E117">
-        <v>462.420575855939</v>
+        <v>443.3954435319442</v>
       </c>
       <c r="F117">
-        <v>0.007751829735876039</v>
+        <v>51.88731252879745</v>
       </c>
       <c r="G117" t="s">
         <v>9</v>
@@ -3107,19 +3107,19 @@
         <v>7</v>
       </c>
       <c r="B118" s="2">
-        <v>44772.00347222222</v>
+        <v>44848.00347222222</v>
       </c>
       <c r="C118">
-        <v>23918.70134038205</v>
+        <v>11.18</v>
       </c>
       <c r="D118">
-        <v>0.00418082899137879</v>
+        <v>17.88908765652952</v>
       </c>
       <c r="E118">
-        <v>362.420575855939</v>
+        <v>243.3954435319442</v>
       </c>
       <c r="F118">
-        <v>0.01193265872725483</v>
+        <v>69.77640018532696</v>
       </c>
       <c r="G118" t="s">
         <v>9</v>
@@ -3127,22 +3127,22 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B119" s="2">
-        <v>44773.00347222222</v>
+        <v>44851.00347222222</v>
       </c>
       <c r="C119">
-        <v>23761.5392077639</v>
+        <v>11.79</v>
       </c>
       <c r="D119">
-        <v>0.004208481577124674</v>
+        <v>16.96352841391009</v>
       </c>
       <c r="E119">
-        <v>262.420575855939</v>
+        <v>443.3954435319442</v>
       </c>
       <c r="F119">
-        <v>0.0161411403043795</v>
+        <v>52.81287177141687</v>
       </c>
       <c r="G119" t="s">
         <v>9</v>
@@ -3150,22 +3150,22 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B120" s="2">
-        <v>44774.00347222222</v>
+        <v>44852.00347222222</v>
       </c>
       <c r="C120">
-        <v>23177.58725862864</v>
+        <v>11.91</v>
       </c>
       <c r="D120">
-        <v>0.004314512933729616</v>
+        <v>16.79261125104954</v>
       </c>
       <c r="E120">
-        <v>162.420575855939</v>
+        <v>643.3954435319442</v>
       </c>
       <c r="F120">
-        <v>0.02045565323810912</v>
+        <v>36.02026052036733</v>
       </c>
       <c r="G120" t="s">
         <v>9</v>
@@ -3173,22 +3173,22 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B121" s="2">
-        <v>44775.00347222222</v>
+        <v>44853.00347222222</v>
       </c>
       <c r="C121">
-        <v>23067.00608720883</v>
+        <v>11.99</v>
       </c>
       <c r="D121">
-        <v>0.004335196324218782</v>
+        <v>16.68056713928274</v>
       </c>
       <c r="E121">
-        <v>62.42057585593898</v>
+        <v>843.3954435319442</v>
       </c>
       <c r="F121">
-        <v>0.0247908495623279</v>
+        <v>19.33969338108459</v>
       </c>
       <c r="G121" t="s">
         <v>9</v>
@@ -3199,19 +3199,19 @@
         <v>8</v>
       </c>
       <c r="B122" s="2">
-        <v>44776.00347222222</v>
+        <v>44854.00347222222</v>
       </c>
       <c r="C122">
-        <v>23318.10108930949</v>
+        <v>12.13</v>
       </c>
       <c r="D122">
-        <v>0.004288513872420187</v>
+        <v>16.48804616652927</v>
       </c>
       <c r="E122">
-        <v>162.420575855939</v>
+        <v>1043.395443531944</v>
       </c>
       <c r="F122">
-        <v>0.02050233568990772</v>
+        <v>2.851647214555328</v>
       </c>
       <c r="G122" t="s">
         <v>9</v>
@@ -3219,22 +3219,22 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B123" s="2">
-        <v>44777.00347222222</v>
+        <v>44855.00347222222</v>
       </c>
       <c r="C123">
-        <v>22538.4140229709</v>
+        <v>12.4</v>
       </c>
       <c r="D123">
-        <v>0.004436869422049002</v>
+        <v>2.851647214555328</v>
       </c>
       <c r="E123">
-        <v>62.42057585593898</v>
+        <v>1078.75586899243</v>
       </c>
       <c r="F123">
-        <v>0.02493920511195672</v>
+        <v>0</v>
       </c>
       <c r="G123" t="s">
         <v>9</v>
@@ -3242,22 +3242,22 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B124" s="2">
-        <v>44778.00347222222</v>
+        <v>44860.00347222222</v>
       </c>
       <c r="C124">
-        <v>23000.540141549</v>
+        <v>12.84</v>
       </c>
       <c r="D124">
-        <v>0.004347723983201438</v>
+        <v>15.57632398753894</v>
       </c>
       <c r="E124">
-        <v>162.420575855939</v>
+        <v>878.7558689924304</v>
       </c>
       <c r="F124">
-        <v>0.02059148112875528</v>
+        <v>15.57632398753894</v>
       </c>
       <c r="G124" t="s">
         <v>9</v>
@@ -3268,19 +3268,19 @@
         <v>8</v>
       </c>
       <c r="B125" s="2">
-        <v>44779.00347222222</v>
+        <v>44861.00347222222</v>
       </c>
       <c r="C125">
-        <v>23156.7374740241</v>
+        <v>13.11</v>
       </c>
       <c r="D125">
-        <v>0.004318397620224968</v>
+        <v>15.25553012967201</v>
       </c>
       <c r="E125">
-        <v>262.420575855939</v>
+        <v>1078.75586899243</v>
       </c>
       <c r="F125">
-        <v>0.01627308350853032</v>
+        <v>0.3207938578669349</v>
       </c>
       <c r="G125" t="s">
         <v>9</v>
@@ -3291,19 +3291,19 @@
         <v>8</v>
       </c>
       <c r="B126" s="2">
-        <v>44780.00347222222</v>
+        <v>44862.00347222222</v>
       </c>
       <c r="C126">
-        <v>23207.84042206202</v>
+        <v>13.77</v>
       </c>
       <c r="D126">
-        <v>0.004308888642001228</v>
+        <v>0.3207938578669349</v>
       </c>
       <c r="E126">
-        <v>362.420575855939</v>
+        <v>1083.173200415258</v>
       </c>
       <c r="F126">
-        <v>0.01196419486652909</v>
+        <v>0</v>
       </c>
       <c r="G126" t="s">
         <v>9</v>
@@ -3311,22 +3311,22 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B127" s="2">
-        <v>44781.00347222222</v>
+        <v>44865.00347222222</v>
       </c>
       <c r="C127">
-        <v>24065.53919415182</v>
+        <v>13.43</v>
       </c>
       <c r="D127">
-        <v>0.00415531932167558</v>
+        <v>14.89203276247208</v>
       </c>
       <c r="E127">
-        <v>462.420575855939</v>
+        <v>883.173200415258</v>
       </c>
       <c r="F127">
-        <v>0.007808875544853509</v>
+        <v>14.89203276247208</v>
       </c>
       <c r="G127" t="s">
         <v>9</v>
@@ -3334,22 +3334,22 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B128" s="2">
-        <v>44782.00347222222</v>
+        <v>44866.00347222222</v>
       </c>
       <c r="C128">
-        <v>23113.17357505343</v>
+        <v>13.49</v>
       </c>
       <c r="D128">
-        <v>0.004326536971449574</v>
+        <v>14.82579688658265</v>
       </c>
       <c r="E128">
-        <v>362.420575855939</v>
+        <v>1083.173200415258</v>
       </c>
       <c r="F128">
-        <v>0.01213541251630308</v>
+        <v>0.06623587588942392</v>
       </c>
       <c r="G128" t="s">
         <v>9</v>
@@ -3357,22 +3357,22 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B129" s="2">
-        <v>44783.00347222222</v>
+        <v>44867.00347222222</v>
       </c>
       <c r="C129">
-        <v>23911.77215467432</v>
+        <v>13.16</v>
       </c>
       <c r="D129">
-        <v>0.004182040517664092</v>
+        <v>15.19756838905775</v>
       </c>
       <c r="E129">
-        <v>462.420575855939</v>
+        <v>883.173200415258</v>
       </c>
       <c r="F129">
-        <v>0.007953371998638992</v>
+        <v>15.26380426494717</v>
       </c>
       <c r="G129" t="s">
         <v>9</v>
@@ -3383,19 +3383,19 @@
         <v>8</v>
       </c>
       <c r="B130" s="2">
-        <v>44784.00347222222</v>
+        <v>44868.00347222222</v>
       </c>
       <c r="C130">
-        <v>24215.59131150551</v>
+        <v>13.37</v>
       </c>
       <c r="D130">
-        <v>0.004129570850185565</v>
+        <v>14.95886312640239</v>
       </c>
       <c r="E130">
-        <v>562.420575855939</v>
+        <v>1083.173200415258</v>
       </c>
       <c r="F130">
-        <v>0.003823801148453427</v>
+        <v>0.3049411385447804</v>
       </c>
       <c r="G130" t="s">
         <v>9</v>
@@ -3403,22 +3403,22 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B131" s="2">
-        <v>44785.00347222222</v>
+        <v>44869.00347222222</v>
       </c>
       <c r="C131">
-        <v>24191.37670133078</v>
+        <v>14.1</v>
       </c>
       <c r="D131">
-        <v>0.004133704387088434</v>
+        <v>0.3049411385447804</v>
       </c>
       <c r="E131">
-        <v>462.420575855939</v>
+        <v>1087.472870468739</v>
       </c>
       <c r="F131">
-        <v>0.007957505535541861</v>
+        <v>0</v>
       </c>
       <c r="G131" t="s">
         <v>9</v>
@@ -3426,22 +3426,22 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B132" s="2">
-        <v>44786.00347222222</v>
+        <v>44874.00347222222</v>
       </c>
       <c r="C132">
-        <v>24488.16262196606</v>
+        <v>13.72</v>
       </c>
       <c r="D132">
-        <v>0.004083605680987239</v>
+        <v>14.57725947521866</v>
       </c>
       <c r="E132">
-        <v>562.420575855939</v>
+        <v>887.4728704687393</v>
       </c>
       <c r="F132">
-        <v>0.003873899854554622</v>
+        <v>14.57725947521866</v>
       </c>
       <c r="G132" t="s">
         <v>9</v>
@@ -3449,22 +3449,22 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B133" s="2">
-        <v>44787.00347222222</v>
+        <v>44875.00347222222</v>
       </c>
       <c r="C133">
-        <v>24290.70964505095</v>
+        <v>15.68</v>
       </c>
       <c r="D133">
-        <v>0.004116800268961029</v>
+        <v>12.75510204081633</v>
       </c>
       <c r="E133">
-        <v>462.420575855939</v>
+        <v>1087.472870468739</v>
       </c>
       <c r="F133">
-        <v>0.007990700123515651</v>
+        <v>1.822157434402332</v>
       </c>
       <c r="G133" t="s">
         <v>9</v>
@@ -3472,22 +3472,22 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B134" s="2">
-        <v>44788.00347222222</v>
+        <v>44876.00347222222</v>
       </c>
       <c r="C134">
-        <v>24068.42043288077</v>
+        <v>16.27</v>
       </c>
       <c r="D134">
-        <v>0.004154821886997879</v>
+        <v>1.822157434402332</v>
       </c>
       <c r="E134">
-        <v>362.420575855939</v>
+        <v>1117.119371926465</v>
       </c>
       <c r="F134">
-        <v>0.01214552201051353</v>
+        <v>0</v>
       </c>
       <c r="G134" t="s">
         <v>9</v>
@@ -3498,19 +3498,19 @@
         <v>7</v>
       </c>
       <c r="B135" s="2">
-        <v>44789.00347222222</v>
+        <v>44881.00347222222</v>
       </c>
       <c r="C135">
-        <v>23955.724041825</v>
+        <v>15.85</v>
       </c>
       <c r="D135">
-        <v>0.004174367672018891</v>
+        <v>12.61829652996845</v>
       </c>
       <c r="E135">
-        <v>262.420575855939</v>
+        <v>917.1193719264652</v>
       </c>
       <c r="F135">
-        <v>0.01631988968253242</v>
+        <v>12.61829652996845</v>
       </c>
       <c r="G135" t="s">
         <v>9</v>
@@ -3518,22 +3518,22 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B136" s="2">
-        <v>44790.00347222222</v>
+        <v>44882.00347222222</v>
       </c>
       <c r="C136">
-        <v>23383.27685453636</v>
+        <v>15.62</v>
       </c>
       <c r="D136">
-        <v>0.004276560578830934</v>
+        <v>12.61829652996845</v>
       </c>
       <c r="E136">
-        <v>162.420575855939</v>
+        <v>1114.217163724572</v>
       </c>
       <c r="F136">
-        <v>0.02059645026136335</v>
+        <v>0</v>
       </c>
       <c r="G136" t="s">
         <v>9</v>
@@ -3544,19 +3544,19 @@
         <v>7</v>
       </c>
       <c r="B137" s="2">
-        <v>44791.00347222222</v>
+        <v>44883.00347222222</v>
       </c>
       <c r="C137">
-        <v>23407.49626831297</v>
+        <v>15.35</v>
       </c>
       <c r="D137">
-        <v>0.004272135680541422</v>
+        <v>13.02931596091205</v>
       </c>
       <c r="E137">
-        <v>62.42057585593898</v>
+        <v>914.2171637245724</v>
       </c>
       <c r="F137">
-        <v>0.02486858594190478</v>
+        <v>13.02931596091205</v>
       </c>
       <c r="G137" t="s">
         <v>9</v>
@@ -3567,19 +3567,19 @@
         <v>8</v>
       </c>
       <c r="B138" s="2">
-        <v>44794.00347222222</v>
+        <v>44886.00347222222</v>
       </c>
       <c r="C138">
-        <v>21429.39079073178</v>
+        <v>15.26</v>
       </c>
       <c r="D138">
-        <v>0.004666488234618878</v>
+        <v>13.02931596091205</v>
       </c>
       <c r="E138">
-        <v>162.420575855939</v>
+        <v>1113.04452528809</v>
       </c>
       <c r="F138">
-        <v>0.0202020977072859</v>
+        <v>0</v>
       </c>
       <c r="G138" t="s">
         <v>9</v>
@@ -3590,19 +3590,19 @@
         <v>7</v>
       </c>
       <c r="B139" s="2">
-        <v>44795.00347222222</v>
+        <v>44893.00347222222</v>
       </c>
       <c r="C139">
-        <v>21089.58938491781</v>
+        <v>15.77</v>
       </c>
       <c r="D139">
-        <v>0.004741676007761196</v>
+        <v>12.68230818008878</v>
       </c>
       <c r="E139">
-        <v>62.42057585593898</v>
+        <v>913.0445252880904</v>
       </c>
       <c r="F139">
-        <v>0.02494377371504709</v>
+        <v>12.68230818008878</v>
       </c>
       <c r="G139" t="s">
         <v>9</v>
@@ -3613,19 +3613,19 @@
         <v>8</v>
       </c>
       <c r="B140" s="2">
-        <v>44796.00347222222</v>
+        <v>44894.00347222222</v>
       </c>
       <c r="C140">
-        <v>21490.82608189716</v>
+        <v>15.58</v>
       </c>
       <c r="D140">
-        <v>0.004653148260514527</v>
+        <v>12.68230818008878</v>
       </c>
       <c r="E140">
-        <v>162.420575855939</v>
+        <v>1110.634886733874</v>
       </c>
       <c r="F140">
-        <v>0.02029062545453257</v>
+        <v>0</v>
       </c>
       <c r="G140" t="s">
         <v>9</v>
@@ -3633,22 +3633,22 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B141" s="2">
-        <v>44797.00347222222</v>
+        <v>44901.00347222222</v>
       </c>
       <c r="C141">
-        <v>21655.86237000908</v>
+        <v>15.93</v>
       </c>
       <c r="D141">
-        <v>0.004617687270606627</v>
+        <v>12.5549278091651</v>
       </c>
       <c r="E141">
-        <v>262.420575855939</v>
+        <v>910.6348867338736</v>
       </c>
       <c r="F141">
-        <v>0.01567293818392594</v>
+        <v>12.5549278091651</v>
       </c>
       <c r="G141" t="s">
         <v>9</v>
@@ -3656,22 +3656,22 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B142" s="2">
-        <v>44798.00347222222</v>
+        <v>44902.00347222222</v>
       </c>
       <c r="C142">
-        <v>21635.21643968801</v>
+        <v>16.06</v>
       </c>
       <c r="D142">
-        <v>0.004622093810744519</v>
+        <v>12.453300124533</v>
       </c>
       <c r="E142">
-        <v>162.420575855939</v>
+        <v>1110.634886733874</v>
       </c>
       <c r="F142">
-        <v>0.02029503199467046</v>
+        <v>0.1016276846320938</v>
       </c>
       <c r="G142" t="s">
         <v>9</v>
@@ -3679,22 +3679,22 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B143" s="2">
-        <v>44799.00347222222</v>
+        <v>44903.00347222222</v>
       </c>
       <c r="C143">
-        <v>20652.59700264132</v>
+        <v>17.11</v>
       </c>
       <c r="D143">
-        <v>0.004842006067673268</v>
+        <v>0.1016276846320938</v>
       </c>
       <c r="E143">
-        <v>62.42057585593898</v>
+        <v>1112.373736417929</v>
       </c>
       <c r="F143">
-        <v>0.02513703806234373</v>
+        <v>0</v>
       </c>
       <c r="G143" t="s">
         <v>9</v>
@@ -3702,22 +3702,22 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B144" s="2">
-        <v>44802.00347222222</v>
+        <v>44910.00347222222</v>
       </c>
       <c r="C144">
-        <v>20167.68524475694</v>
+        <v>16.9</v>
       </c>
       <c r="D144">
-        <v>0.004958427245684892</v>
+        <v>11.83431952662722</v>
       </c>
       <c r="E144">
-        <v>162.420575855939</v>
+        <v>912.3737364179287</v>
       </c>
       <c r="F144">
-        <v>0.02017861081665884</v>
+        <v>11.83431952662722</v>
       </c>
       <c r="G144" t="s">
         <v>9</v>
@@ -3728,19 +3728,19 @@
         <v>7</v>
       </c>
       <c r="B145" s="2">
-        <v>44803.00347222222</v>
+        <v>44911.00347222222</v>
       </c>
       <c r="C145">
-        <v>19944.676103928</v>
+        <v>16.51</v>
       </c>
       <c r="D145">
-        <v>0.005013869339312337</v>
+        <v>12.11387038158692</v>
       </c>
       <c r="E145">
-        <v>62.42057585593898</v>
+        <v>712.3737364179287</v>
       </c>
       <c r="F145">
-        <v>0.02519248015597117</v>
+        <v>23.94818990821414</v>
       </c>
       <c r="G145" t="s">
         <v>9</v>
@@ -3751,19 +3751,19 @@
         <v>8</v>
       </c>
       <c r="B146" s="2">
-        <v>44804.00347222222</v>
+        <v>44914.00347222222</v>
       </c>
       <c r="C146">
-        <v>20182.57441413257</v>
+        <v>16.19</v>
       </c>
       <c r="D146">
-        <v>0.004954769294940707</v>
+        <v>12.35330450895614</v>
       </c>
       <c r="E146">
-        <v>162.420575855939</v>
+        <v>912.3737364179287</v>
       </c>
       <c r="F146">
-        <v>0.02023771086103047</v>
+        <v>11.59488539925799</v>
       </c>
       <c r="G146" t="s">
         <v>9</v>
@@ -3771,22 +3771,22 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B147" s="2">
-        <v>44805.00347222222</v>
+        <v>44915.00347222222</v>
       </c>
       <c r="C147">
-        <v>20070.83299614299</v>
+        <v>16.03</v>
       </c>
       <c r="D147">
-        <v>0.004982354246045343</v>
+        <v>11.59488539925799</v>
       </c>
       <c r="E147">
-        <v>62.42057585593898</v>
+        <v>1098.239749368034</v>
       </c>
       <c r="F147">
-        <v>0.02522006510707581</v>
+        <v>0</v>
       </c>
       <c r="G147" t="s">
         <v>9</v>
@@ -3794,22 +3794,22 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B148" s="2">
-        <v>44811.00347222222</v>
+        <v>44917.00347222222</v>
       </c>
       <c r="C148">
-        <v>19362.81189964575</v>
+        <v>15.28</v>
       </c>
       <c r="D148">
-        <v>0.005164539144329009</v>
+        <v>13.08900523560209</v>
       </c>
       <c r="E148">
-        <v>162.420575855939</v>
+        <v>898.2397493680344</v>
       </c>
       <c r="F148">
-        <v>0.0200555259627468</v>
+        <v>13.08900523560209</v>
       </c>
       <c r="G148" t="s">
         <v>9</v>
@@ -3817,22 +3817,22 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B149" s="2">
-        <v>44812.00347222222</v>
+        <v>44918.00347222222</v>
       </c>
       <c r="C149">
-        <v>19339.79744371244</v>
+        <v>15.14</v>
       </c>
       <c r="D149">
-        <v>0.00517068497180724</v>
+        <v>13.08900523560209</v>
       </c>
       <c r="E149">
-        <v>62.42057585593898</v>
+        <v>1096.40728863505</v>
       </c>
       <c r="F149">
-        <v>0.02522621093455404</v>
+        <v>0</v>
       </c>
       <c r="G149" t="s">
         <v>9</v>
@@ -3840,22 +3840,22 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B150" s="2">
-        <v>44813.00347222222</v>
+        <v>44922.00347222222</v>
       </c>
       <c r="C150">
-        <v>21304.1615577915</v>
+        <v>14.06</v>
       </c>
       <c r="D150">
-        <v>0.004693918590916213</v>
+        <v>14.22475106685633</v>
       </c>
       <c r="E150">
-        <v>162.420575855939</v>
+        <v>896.40728863505</v>
       </c>
       <c r="F150">
-        <v>0.02053229234363783</v>
+        <v>14.22475106685633</v>
       </c>
       <c r="G150" t="s">
         <v>9</v>
@@ -3866,1447 +3866,21 @@
         <v>8</v>
       </c>
       <c r="B151" s="2">
-        <v>44814.00347222222</v>
+        <v>44923.00347222222</v>
       </c>
       <c r="C151">
-        <v>21434.36901693936</v>
+        <v>13.98</v>
       </c>
       <c r="D151">
-        <v>0.004665404422260859</v>
+        <v>14.22475106685633</v>
       </c>
       <c r="E151">
-        <v>262.420575855939</v>
+        <v>1095.269308549701</v>
       </c>
       <c r="F151">
-        <v>0.01586688792137697</v>
+        <v>0</v>
       </c>
       <c r="G151" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
-      <c r="A152" t="s">
-        <v>8</v>
-      </c>
-      <c r="B152" s="2">
-        <v>44815.00347222222</v>
-      </c>
-      <c r="C152">
-        <v>21627.20305721142</v>
-      </c>
-      <c r="D152">
-        <v>0.004623806404159866</v>
-      </c>
-      <c r="E152">
-        <v>362.420575855939</v>
-      </c>
-      <c r="F152">
-        <v>0.0112430815172171</v>
-      </c>
-      <c r="G152" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
-      <c r="A153" t="s">
-        <v>8</v>
-      </c>
-      <c r="B153" s="2">
-        <v>44816.00347222222</v>
-      </c>
-      <c r="C153">
-        <v>22392.5195718839</v>
-      </c>
-      <c r="D153">
-        <v>0.004465777050187788</v>
-      </c>
-      <c r="E153">
-        <v>462.420575855939</v>
-      </c>
-      <c r="F153">
-        <v>0.006777304467029317</v>
-      </c>
-      <c r="G153" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
-      <c r="A154" t="s">
-        <v>7</v>
-      </c>
-      <c r="B154" s="2">
-        <v>44817.00347222222</v>
-      </c>
-      <c r="C154">
-        <v>20229.0814776535</v>
-      </c>
-      <c r="D154">
-        <v>0.004943378181083861</v>
-      </c>
-      <c r="E154">
-        <v>362.420575855939</v>
-      </c>
-      <c r="F154">
-        <v>0.01172068264811318</v>
-      </c>
-      <c r="G154" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7">
-      <c r="A155" t="s">
-        <v>7</v>
-      </c>
-      <c r="B155" s="2">
-        <v>44818.00347222222</v>
-      </c>
-      <c r="C155">
-        <v>19940.83627333759</v>
-      </c>
-      <c r="D155">
-        <v>0.005014834815815002</v>
-      </c>
-      <c r="E155">
-        <v>262.420575855939</v>
-      </c>
-      <c r="F155">
-        <v>0.01673551746392818</v>
-      </c>
-      <c r="G155" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
-      <c r="A156" t="s">
-        <v>7</v>
-      </c>
-      <c r="B156" s="2">
-        <v>44819.00347222222</v>
-      </c>
-      <c r="C156">
-        <v>19848.50132967115</v>
-      </c>
-      <c r="D156">
-        <v>0.005038163755492809</v>
-      </c>
-      <c r="E156">
-        <v>162.420575855939</v>
-      </c>
-      <c r="F156">
-        <v>0.02177368121942099</v>
-      </c>
-      <c r="G156" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7">
-      <c r="A157" t="s">
-        <v>7</v>
-      </c>
-      <c r="B157" s="2">
-        <v>44820.00347222222</v>
-      </c>
-      <c r="C157">
-        <v>19729.70374465378</v>
-      </c>
-      <c r="D157">
-        <v>0.005068499826161724</v>
-      </c>
-      <c r="E157">
-        <v>62.42057585593898</v>
-      </c>
-      <c r="F157">
-        <v>0.02684218104558271</v>
-      </c>
-      <c r="G157" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
-      <c r="A158" t="s">
-        <v>8</v>
-      </c>
-      <c r="B158" s="2">
-        <v>44821.00347222222</v>
-      </c>
-      <c r="C158">
-        <v>20015.33449375794</v>
-      </c>
-      <c r="D158">
-        <v>0.004996169313642316</v>
-      </c>
-      <c r="E158">
-        <v>162.420575855939</v>
-      </c>
-      <c r="F158">
-        <v>0.0218460117319404</v>
-      </c>
-      <c r="G158" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
-      <c r="A159" t="s">
-        <v>7</v>
-      </c>
-      <c r="B159" s="2">
-        <v>44822.00347222222</v>
-      </c>
-      <c r="C159">
-        <v>19713.32148601992</v>
-      </c>
-      <c r="D159">
-        <v>0.005072711875110285</v>
-      </c>
-      <c r="E159">
-        <v>62.42057585593898</v>
-      </c>
-      <c r="F159">
-        <v>0.02691872360705068</v>
-      </c>
-      <c r="G159" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
-      <c r="A160" t="s">
-        <v>8</v>
-      </c>
-      <c r="B160" s="2">
-        <v>44826.00347222222</v>
-      </c>
-      <c r="C160">
-        <v>19206.22126447216</v>
-      </c>
-      <c r="D160">
-        <v>0.005206646253991716</v>
-      </c>
-      <c r="E160">
-        <v>162.420575855939</v>
-      </c>
-      <c r="F160">
-        <v>0.02171207735305896</v>
-      </c>
-      <c r="G160" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7">
-      <c r="A161" t="s">
-        <v>7</v>
-      </c>
-      <c r="B161" s="2">
-        <v>44827.00347222222</v>
-      </c>
-      <c r="C161">
-        <v>18811.21490460274</v>
-      </c>
-      <c r="D161">
-        <v>0.005315977756201805</v>
-      </c>
-      <c r="E161">
-        <v>62.42057585593898</v>
-      </c>
-      <c r="F161">
-        <v>0.02702805510926077</v>
-      </c>
-      <c r="G161" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
-      <c r="A162" t="s">
-        <v>8</v>
-      </c>
-      <c r="B162" s="2">
-        <v>44828.00347222222</v>
-      </c>
-      <c r="C162">
-        <v>19140.97668923375</v>
-      </c>
-      <c r="D162">
-        <v>0.005224393803073127</v>
-      </c>
-      <c r="E162">
-        <v>162.420575855939</v>
-      </c>
-      <c r="F162">
-        <v>0.02180366130618764</v>
-      </c>
-      <c r="G162" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7">
-      <c r="A163" t="s">
-        <v>7</v>
-      </c>
-      <c r="B163" s="2">
-        <v>44829.00347222222</v>
-      </c>
-      <c r="C163">
-        <v>18883.10917510632</v>
-      </c>
-      <c r="D163">
-        <v>0.005295738062661332</v>
-      </c>
-      <c r="E163">
-        <v>62.42057585593898</v>
-      </c>
-      <c r="F163">
-        <v>0.02709939936884898</v>
-      </c>
-      <c r="G163" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
-      <c r="A164" t="s">
-        <v>8</v>
-      </c>
-      <c r="B164" s="2">
-        <v>44830.00347222222</v>
-      </c>
-      <c r="C164">
-        <v>19091.19781946435</v>
-      </c>
-      <c r="D164">
-        <v>0.005238016018986794</v>
-      </c>
-      <c r="E164">
-        <v>162.420575855939</v>
-      </c>
-      <c r="F164">
-        <v>0.02186138334986218</v>
-      </c>
-      <c r="G164" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7">
-      <c r="A165" t="s">
-        <v>7</v>
-      </c>
-      <c r="B165" s="2">
-        <v>44831.00347222222</v>
-      </c>
-      <c r="C165">
-        <v>19071.62341827631</v>
-      </c>
-      <c r="D165">
-        <v>0.005243392122779129</v>
-      </c>
-      <c r="E165">
-        <v>62.42057585593898</v>
-      </c>
-      <c r="F165">
-        <v>0.02710477547264131</v>
-      </c>
-      <c r="G165" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7">
-      <c r="A166" t="s">
-        <v>8</v>
-      </c>
-      <c r="B166" s="2">
-        <v>44832.00347222222</v>
-      </c>
-      <c r="C166">
-        <v>19593.80174666991</v>
-      </c>
-      <c r="D166">
-        <v>0.005103654782921117</v>
-      </c>
-      <c r="E166">
-        <v>162.420575855939</v>
-      </c>
-      <c r="F166">
-        <v>0.0220011206897202</v>
-      </c>
-      <c r="G166" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7">
-      <c r="A167" t="s">
-        <v>7</v>
-      </c>
-      <c r="B167" s="2">
-        <v>44833.00347222222</v>
-      </c>
-      <c r="C167">
-        <v>19482.6062916534</v>
-      </c>
-      <c r="D167">
-        <v>0.005132783494313144</v>
-      </c>
-      <c r="E167">
-        <v>62.42057585593898</v>
-      </c>
-      <c r="F167">
-        <v>0.02713390418403334</v>
-      </c>
-      <c r="G167" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
-      <c r="A168" t="s">
-        <v>8</v>
-      </c>
-      <c r="B168" s="2">
-        <v>44837.00347222222</v>
-      </c>
-      <c r="C168">
-        <v>19595.61194265553</v>
-      </c>
-      <c r="D168">
-        <v>0.005103183319441074</v>
-      </c>
-      <c r="E168">
-        <v>162.420575855939</v>
-      </c>
-      <c r="F168">
-        <v>0.02203072086459227</v>
-      </c>
-      <c r="G168" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
-      <c r="A169" t="s">
-        <v>8</v>
-      </c>
-      <c r="B169" s="2">
-        <v>44838.00347222222</v>
-      </c>
-      <c r="C169">
-        <v>20326.39907837202</v>
-      </c>
-      <c r="D169">
-        <v>0.004919710550522615</v>
-      </c>
-      <c r="E169">
-        <v>262.420575855939</v>
-      </c>
-      <c r="F169">
-        <v>0.01711101031406965</v>
-      </c>
-      <c r="G169" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
-      <c r="A170" t="s">
-        <v>7</v>
-      </c>
-      <c r="B170" s="2">
-        <v>44839.00347222222</v>
-      </c>
-      <c r="C170">
-        <v>20000.16730127547</v>
-      </c>
-      <c r="D170">
-        <v>0.004999958175031002</v>
-      </c>
-      <c r="E170">
-        <v>162.420575855939</v>
-      </c>
-      <c r="F170">
-        <v>0.02211096848910065</v>
-      </c>
-      <c r="G170" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
-      <c r="A171" t="s">
-        <v>7</v>
-      </c>
-      <c r="B171" s="2">
-        <v>44840.00347222222</v>
-      </c>
-      <c r="C171">
-        <v>20057.41254111862</v>
-      </c>
-      <c r="D171">
-        <v>0.004985687949280366</v>
-      </c>
-      <c r="E171">
-        <v>62.42057585593898</v>
-      </c>
-      <c r="F171">
-        <v>0.02709665643838102</v>
-      </c>
-      <c r="G171" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
-      <c r="A172" t="s">
-        <v>8</v>
-      </c>
-      <c r="B172" s="2">
-        <v>44847.00347222222</v>
-      </c>
-      <c r="C172">
-        <v>19392.71682030354</v>
-      </c>
-      <c r="D172">
-        <v>0.005156575065093678</v>
-      </c>
-      <c r="E172">
-        <v>162.420575855939</v>
-      </c>
-      <c r="F172">
-        <v>0.02194008137328734</v>
-      </c>
-      <c r="G172" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
-      <c r="A173" t="s">
-        <v>7</v>
-      </c>
-      <c r="B173" s="2">
-        <v>44848.00347222222</v>
-      </c>
-      <c r="C173">
-        <v>19142.68109736494</v>
-      </c>
-      <c r="D173">
-        <v>0.005223928638385215</v>
-      </c>
-      <c r="E173">
-        <v>62.42057585593898</v>
-      </c>
-      <c r="F173">
-        <v>0.02716401001167256</v>
-      </c>
-      <c r="G173" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
-      <c r="A174" t="s">
-        <v>8</v>
-      </c>
-      <c r="B174" s="2">
-        <v>44850.00347222222</v>
-      </c>
-      <c r="C174">
-        <v>19316.86521998846</v>
-      </c>
-      <c r="D174">
-        <v>0.005176823405928374</v>
-      </c>
-      <c r="E174">
-        <v>162.420575855939</v>
-      </c>
-      <c r="F174">
-        <v>0.02198718660574418</v>
-      </c>
-      <c r="G174" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
-      <c r="A175" t="s">
-        <v>8</v>
-      </c>
-      <c r="B175" s="2">
-        <v>44851.00347222222</v>
-      </c>
-      <c r="C175">
-        <v>19513.78604637161</v>
-      </c>
-      <c r="D175">
-        <v>0.005124582167825601</v>
-      </c>
-      <c r="E175">
-        <v>262.420575855939</v>
-      </c>
-      <c r="F175">
-        <v>0.01686260443791858</v>
-      </c>
-      <c r="G175" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
-      <c r="A176" t="s">
-        <v>7</v>
-      </c>
-      <c r="B176" s="2">
-        <v>44852.00347222222</v>
-      </c>
-      <c r="C176">
-        <v>19331.44193156189</v>
-      </c>
-      <c r="D176">
-        <v>0.005172919865679179</v>
-      </c>
-      <c r="E176">
-        <v>162.420575855939</v>
-      </c>
-      <c r="F176">
-        <v>0.02203552430359776</v>
-      </c>
-      <c r="G176" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
-      <c r="A177" t="s">
-        <v>7</v>
-      </c>
-      <c r="B177" s="2">
-        <v>44853.00347222222</v>
-      </c>
-      <c r="C177">
-        <v>19164.85250697838</v>
-      </c>
-      <c r="D177">
-        <v>0.005217885186624191</v>
-      </c>
-      <c r="E177">
-        <v>62.42057585593898</v>
-      </c>
-      <c r="F177">
-        <v>0.02725340949022195</v>
-      </c>
-      <c r="G177" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7">
-      <c r="A178" t="s">
-        <v>8</v>
-      </c>
-      <c r="B178" s="2">
-        <v>44857.00347222222</v>
-      </c>
-      <c r="C178">
-        <v>19470.20953399583</v>
-      </c>
-      <c r="D178">
-        <v>0.005136051557400843</v>
-      </c>
-      <c r="E178">
-        <v>162.420575855939</v>
-      </c>
-      <c r="F178">
-        <v>0.02211735793282111</v>
-      </c>
-      <c r="G178" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
-      <c r="A179" t="s">
-        <v>7</v>
-      </c>
-      <c r="B179" s="2">
-        <v>44858.00347222222</v>
-      </c>
-      <c r="C179">
-        <v>19422.63959001178</v>
-      </c>
-      <c r="D179">
-        <v>0.005148630778868268</v>
-      </c>
-      <c r="E179">
-        <v>62.42057585593898</v>
-      </c>
-      <c r="F179">
-        <v>0.02726598871168938</v>
-      </c>
-      <c r="G179" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7">
-      <c r="A180" t="s">
-        <v>8</v>
-      </c>
-      <c r="B180" s="2">
-        <v>44859.00347222222</v>
-      </c>
-      <c r="C180">
-        <v>20195.55668676306</v>
-      </c>
-      <c r="D180">
-        <v>0.004951584229690673</v>
-      </c>
-      <c r="E180">
-        <v>162.420575855939</v>
-      </c>
-      <c r="F180">
-        <v>0.02231440448199871</v>
-      </c>
-      <c r="G180" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7">
-      <c r="A181" t="s">
-        <v>8</v>
-      </c>
-      <c r="B181" s="2">
-        <v>44860.00347222222</v>
-      </c>
-      <c r="C181">
-        <v>20733.86080716994</v>
-      </c>
-      <c r="D181">
-        <v>0.004823028423409651</v>
-      </c>
-      <c r="E181">
-        <v>262.420575855939</v>
-      </c>
-      <c r="F181">
-        <v>0.01749137605858906</v>
-      </c>
-      <c r="G181" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7">
-      <c r="A182" t="s">
-        <v>7</v>
-      </c>
-      <c r="B182" s="2">
-        <v>44861.00347222222</v>
-      </c>
-      <c r="C182">
-        <v>20387.63057288924</v>
-      </c>
-      <c r="D182">
-        <v>0.004904934864425909</v>
-      </c>
-      <c r="E182">
-        <v>162.420575855939</v>
-      </c>
-      <c r="F182">
-        <v>0.02239631092301497</v>
-      </c>
-      <c r="G182" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7">
-      <c r="A183" t="s">
-        <v>7</v>
-      </c>
-      <c r="B183" s="2">
-        <v>44862.00347222222</v>
-      </c>
-      <c r="C183">
-        <v>20610.50942151212</v>
-      </c>
-      <c r="D183">
-        <v>0.004851893660407319</v>
-      </c>
-      <c r="E183">
-        <v>62.42057585593898</v>
-      </c>
-      <c r="F183">
-        <v>0.02724820458342228</v>
-      </c>
-      <c r="G183" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7">
-      <c r="A184" t="s">
-        <v>8</v>
-      </c>
-      <c r="B184" s="2">
-        <v>44863.00347222222</v>
-      </c>
-      <c r="C184">
-        <v>20854.76603772314</v>
-      </c>
-      <c r="D184">
-        <v>0.004795066979850793</v>
-      </c>
-      <c r="E184">
-        <v>162.420575855939</v>
-      </c>
-      <c r="F184">
-        <v>0.02245313760357149</v>
-      </c>
-      <c r="G184" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7">
-      <c r="A185" t="s">
-        <v>7</v>
-      </c>
-      <c r="B185" s="2">
-        <v>44864.00347222222</v>
-      </c>
-      <c r="C185">
-        <v>20662.23642919739</v>
-      </c>
-      <c r="D185">
-        <v>0.004839747156251296</v>
-      </c>
-      <c r="E185">
-        <v>62.42057585593898</v>
-      </c>
-      <c r="F185">
-        <v>0.02729288475982278</v>
-      </c>
-      <c r="G185" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7">
-      <c r="A186" t="s">
-        <v>8</v>
-      </c>
-      <c r="B186" s="2">
-        <v>44869.00347222222</v>
-      </c>
-      <c r="C186">
-        <v>21209.67510663059</v>
-      </c>
-      <c r="D186">
-        <v>0.004714829411448075</v>
-      </c>
-      <c r="E186">
-        <v>162.420575855939</v>
-      </c>
-      <c r="F186">
-        <v>0.02257805534837471</v>
-      </c>
-      <c r="G186" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7">
-      <c r="A187" t="s">
-        <v>8</v>
-      </c>
-      <c r="B187" s="2">
-        <v>44870.00347222222</v>
-      </c>
-      <c r="C187">
-        <v>21325.39268416145</v>
-      </c>
-      <c r="D187">
-        <v>0.004689245421223631</v>
-      </c>
-      <c r="E187">
-        <v>262.420575855939</v>
-      </c>
-      <c r="F187">
-        <v>0.01788880992715108</v>
-      </c>
-      <c r="G187" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
-      <c r="A188" t="s">
-        <v>7</v>
-      </c>
-      <c r="B188" s="2">
-        <v>44871.00347222222</v>
-      </c>
-      <c r="C188">
-        <v>21090.85225459242</v>
-      </c>
-      <c r="D188">
-        <v>0.004741392087568463</v>
-      </c>
-      <c r="E188">
-        <v>162.420575855939</v>
-      </c>
-      <c r="F188">
-        <v>0.02263020201471954</v>
-      </c>
-      <c r="G188" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7">
-      <c r="A189" t="s">
-        <v>7</v>
-      </c>
-      <c r="B189" s="2">
-        <v>44872.00347222222</v>
-      </c>
-      <c r="C189">
-        <v>20682.89909758533</v>
-      </c>
-      <c r="D189">
-        <v>0.004834912143030989</v>
-      </c>
-      <c r="E189">
-        <v>62.42057585593898</v>
-      </c>
-      <c r="F189">
-        <v>0.02746511415775053</v>
-      </c>
-      <c r="G189" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7">
-      <c r="A190" t="s">
-        <v>8</v>
-      </c>
-      <c r="B190" s="2">
-        <v>44875.00347222222</v>
-      </c>
-      <c r="C190">
-        <v>17775.31845888076</v>
-      </c>
-      <c r="D190">
-        <v>0.005625778251530498</v>
-      </c>
-      <c r="E190">
-        <v>162.420575855939</v>
-      </c>
-      <c r="F190">
-        <v>0.02183933590622004</v>
-      </c>
-      <c r="G190" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7">
-      <c r="A191" t="s">
-        <v>7</v>
-      </c>
-      <c r="B191" s="2">
-        <v>44876.00347222222</v>
-      </c>
-      <c r="C191">
-        <v>16782.01301681724</v>
-      </c>
-      <c r="D191">
-        <v>0.005958760721958094</v>
-      </c>
-      <c r="E191">
-        <v>62.42057585593898</v>
-      </c>
-      <c r="F191">
-        <v>0.02779809662817813</v>
-      </c>
-      <c r="G191" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7">
-      <c r="A192" t="s">
-        <v>8</v>
-      </c>
-      <c r="B192" s="2">
-        <v>44880.00347222222</v>
-      </c>
-      <c r="C192">
-        <v>16890.88807141462</v>
-      </c>
-      <c r="D192">
-        <v>0.005920351823847292</v>
-      </c>
-      <c r="E192">
-        <v>162.420575855939</v>
-      </c>
-      <c r="F192">
-        <v>0.02187774480433084</v>
-      </c>
-      <c r="G192" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7">
-      <c r="A193" t="s">
-        <v>7</v>
-      </c>
-      <c r="B193" s="2">
-        <v>44881.00347222222</v>
-      </c>
-      <c r="C193">
-        <v>16517.77355303584</v>
-      </c>
-      <c r="D193">
-        <v>0.006054084691191374</v>
-      </c>
-      <c r="E193">
-        <v>62.42057585593898</v>
-      </c>
-      <c r="F193">
-        <v>0.02793182949552222</v>
-      </c>
-      <c r="G193" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7">
-      <c r="A194" t="s">
-        <v>8</v>
-      </c>
-      <c r="B194" s="2">
-        <v>44887.00347222222</v>
-      </c>
-      <c r="C194">
-        <v>16105.58303305383</v>
-      </c>
-      <c r="D194">
-        <v>0.006209027006024425</v>
-      </c>
-      <c r="E194">
-        <v>162.420575855939</v>
-      </c>
-      <c r="F194">
-        <v>0.02172280248949779</v>
-      </c>
-      <c r="G194" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7">
-      <c r="A195" t="s">
-        <v>8</v>
-      </c>
-      <c r="B195" s="2">
-        <v>44888.00347222222</v>
-      </c>
-      <c r="C195">
-        <v>16432.85796374956</v>
-      </c>
-      <c r="D195">
-        <v>0.006085368730174464</v>
-      </c>
-      <c r="E195">
-        <v>262.420575855939</v>
-      </c>
-      <c r="F195">
-        <v>0.01563743375932333</v>
-      </c>
-      <c r="G195" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7">
-      <c r="A196" t="s">
-        <v>8</v>
-      </c>
-      <c r="B196" s="2">
-        <v>44889.00347222222</v>
-      </c>
-      <c r="C196">
-        <v>16484.36932841095</v>
-      </c>
-      <c r="D196">
-        <v>0.006066352798080614</v>
-      </c>
-      <c r="E196">
-        <v>362.420575855939</v>
-      </c>
-      <c r="F196">
-        <v>0.009571080961242711</v>
-      </c>
-      <c r="G196" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7">
-      <c r="A197" t="s">
-        <v>7</v>
-      </c>
-      <c r="B197" s="2">
-        <v>44890.00347222222</v>
-      </c>
-      <c r="C197">
-        <v>16475.8519012151</v>
-      </c>
-      <c r="D197">
-        <v>0.006069488885890324</v>
-      </c>
-      <c r="E197">
-        <v>262.420575855939</v>
-      </c>
-      <c r="F197">
-        <v>0.01564056984713304</v>
-      </c>
-      <c r="G197" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7">
-      <c r="A198" t="s">
-        <v>7</v>
-      </c>
-      <c r="B198" s="2">
-        <v>44891.00347222222</v>
-      </c>
-      <c r="C198">
-        <v>16475.18735666954</v>
-      </c>
-      <c r="D198">
-        <v>0.006069733705305492</v>
-      </c>
-      <c r="E198">
-        <v>162.420575855939</v>
-      </c>
-      <c r="F198">
-        <v>0.02171030355243853</v>
-      </c>
-      <c r="G198" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7">
-      <c r="A199" t="s">
-        <v>7</v>
-      </c>
-      <c r="B199" s="2">
-        <v>44892.00347222222</v>
-      </c>
-      <c r="C199">
-        <v>16541.9167513682</v>
-      </c>
-      <c r="D199">
-        <v>0.006045248655463637</v>
-      </c>
-      <c r="E199">
-        <v>62.42057585593898</v>
-      </c>
-      <c r="F199">
-        <v>0.02775555220790217</v>
-      </c>
-      <c r="G199" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7">
-      <c r="A200" t="s">
-        <v>8</v>
-      </c>
-      <c r="B200" s="2">
-        <v>44894.00347222222</v>
-      </c>
-      <c r="C200">
-        <v>16403.28387149659</v>
-      </c>
-      <c r="D200">
-        <v>0.006096340268412138</v>
-      </c>
-      <c r="E200">
-        <v>162.420575855939</v>
-      </c>
-      <c r="F200">
-        <v>0.02165921193949003</v>
-      </c>
-      <c r="G200" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7">
-      <c r="A201" t="s">
-        <v>8</v>
-      </c>
-      <c r="B201" s="2">
-        <v>44895.00347222222</v>
-      </c>
-      <c r="C201">
-        <v>17095.89307307539</v>
-      </c>
-      <c r="D201">
-        <v>0.00584935806351595</v>
-      </c>
-      <c r="E201">
-        <v>262.420575855939</v>
-      </c>
-      <c r="F201">
-        <v>0.01580985387597408</v>
-      </c>
-      <c r="G201" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7">
-      <c r="A202" t="s">
-        <v>7</v>
-      </c>
-      <c r="B202" s="2">
-        <v>44896.00347222222</v>
-      </c>
-      <c r="C202">
-        <v>16913.25716636673</v>
-      </c>
-      <c r="D202">
-        <v>0.005912521699182666</v>
-      </c>
-      <c r="E202">
-        <v>162.420575855939</v>
-      </c>
-      <c r="F202">
-        <v>0.02172237557515674</v>
-      </c>
-      <c r="G202" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7">
-      <c r="A203" t="s">
-        <v>7</v>
-      </c>
-      <c r="B203" s="2">
-        <v>44897.00347222222</v>
-      </c>
-      <c r="C203">
-        <v>16999.63273516018</v>
-      </c>
-      <c r="D203">
-        <v>0.005882480025181424</v>
-      </c>
-      <c r="E203">
-        <v>62.42057585593898</v>
-      </c>
-      <c r="F203">
-        <v>0.02760485560033817</v>
-      </c>
-      <c r="G203" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7">
-      <c r="A204" t="s">
-        <v>8</v>
-      </c>
-      <c r="B204" s="2">
-        <v>44899.00347222222</v>
-      </c>
-      <c r="C204">
-        <v>17082.24231340544</v>
-      </c>
-      <c r="D204">
-        <v>0.005854032401912723</v>
-      </c>
-      <c r="E204">
-        <v>162.420575855939</v>
-      </c>
-      <c r="F204">
-        <v>0.02175082319842545</v>
-      </c>
-      <c r="G204" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7">
-      <c r="A205" t="s">
-        <v>7</v>
-      </c>
-      <c r="B205" s="2">
-        <v>44900.00347222222</v>
-      </c>
-      <c r="C205">
-        <v>16953.53829470508</v>
-      </c>
-      <c r="D205">
-        <v>0.00589847371455385</v>
-      </c>
-      <c r="E205">
-        <v>62.42057585593898</v>
-      </c>
-      <c r="F205">
-        <v>0.02764929691297929</v>
-      </c>
-      <c r="G205" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7">
-      <c r="A206" t="s">
-        <v>8</v>
-      </c>
-      <c r="B206" s="2">
-        <v>44903.00347222222</v>
-      </c>
-      <c r="C206">
-        <v>17192.64447550974</v>
-      </c>
-      <c r="D206">
-        <v>0.005816440870538917</v>
-      </c>
-      <c r="E206">
-        <v>162.420575855939</v>
-      </c>
-      <c r="F206">
-        <v>0.02183285604244038</v>
-      </c>
-      <c r="G206" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7">
-      <c r="A207" t="s">
-        <v>7</v>
-      </c>
-      <c r="B207" s="2">
-        <v>44904.00347222222</v>
-      </c>
-      <c r="C207">
-        <v>17083.67691960186</v>
-      </c>
-      <c r="D207">
-        <v>0.005853540808024747</v>
-      </c>
-      <c r="E207">
-        <v>62.42057585593898</v>
-      </c>
-      <c r="F207">
-        <v>0.02768639685046512</v>
-      </c>
-      <c r="G207" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7">
-      <c r="A208" t="s">
-        <v>8</v>
-      </c>
-      <c r="B208" s="2">
-        <v>44908.00347222222</v>
-      </c>
-      <c r="C208">
-        <v>17746.30394167953</v>
-      </c>
-      <c r="D208">
-        <v>0.005634976180315318</v>
-      </c>
-      <c r="E208">
-        <v>162.420575855939</v>
-      </c>
-      <c r="F208">
-        <v>0.02205142067014981</v>
-      </c>
-      <c r="G208" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7">
-      <c r="A209" t="s">
-        <v>8</v>
-      </c>
-      <c r="B209" s="2">
-        <v>44909.00347222222</v>
-      </c>
-      <c r="C209">
-        <v>17815.23104455189</v>
-      </c>
-      <c r="D209">
-        <v>0.005613174465709847</v>
-      </c>
-      <c r="E209">
-        <v>262.420575855939</v>
-      </c>
-      <c r="F209">
-        <v>0.01643824620443996</v>
-      </c>
-      <c r="G209" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7">
-      <c r="A210" t="s">
-        <v>7</v>
-      </c>
-      <c r="B210" s="2">
-        <v>44910.00347222222</v>
-      </c>
-      <c r="C210">
-        <v>17369.28609394198</v>
-      </c>
-      <c r="D210">
-        <v>0.005757289013442975</v>
-      </c>
-      <c r="E210">
-        <v>162.420575855939</v>
-      </c>
-      <c r="F210">
-        <v>0.02219553521788293</v>
-      </c>
-      <c r="G210" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7">
-      <c r="A211" t="s">
-        <v>7</v>
-      </c>
-      <c r="B211" s="2">
-        <v>44911.00347222222</v>
-      </c>
-      <c r="C211">
-        <v>16837.33094895496</v>
-      </c>
-      <c r="D211">
-        <v>0.005939183609514231</v>
-      </c>
-      <c r="E211">
-        <v>62.42057585593898</v>
-      </c>
-      <c r="F211">
-        <v>0.02813471882739716</v>
-      </c>
-      <c r="G211" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7">
-      <c r="A212" t="s">
-        <v>8</v>
-      </c>
-      <c r="B212" s="2">
-        <v>44915.00347222222</v>
-      </c>
-      <c r="C212">
-        <v>16847.93883326561</v>
-      </c>
-      <c r="D212">
-        <v>0.005935444150744056</v>
-      </c>
-      <c r="E212">
-        <v>162.420575855939</v>
-      </c>
-      <c r="F212">
-        <v>0.02219927467665311</v>
-      </c>
-      <c r="G212" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7">
-      <c r="A213" t="s">
-        <v>7</v>
-      </c>
-      <c r="B213" s="2">
-        <v>44916.00347222222</v>
-      </c>
-      <c r="C213">
-        <v>16785.83103840845</v>
-      </c>
-      <c r="D213">
-        <v>0.005957405371898792</v>
-      </c>
-      <c r="E213">
-        <v>62.42057585593898</v>
-      </c>
-      <c r="F213">
-        <v>0.0281566800485519</v>
-      </c>
-      <c r="G213" t="s">
         <v>9</v>
       </c>
     </row>
